--- a/ExcelNameList/uptd26Mahercred.xlsx
+++ b/ExcelNameList/uptd26Mahercred.xlsx
@@ -4465,2227 +4465,2227 @@
     <t>1514150@Maher</t>
   </si>
   <si>
-    <t>5cyrBOgx</t>
-  </si>
-  <si>
-    <t>8wMYzxZV</t>
-  </si>
-  <si>
-    <t>KPwJTqnW</t>
-  </si>
-  <si>
-    <t>zJ0hzZMs</t>
-  </si>
-  <si>
-    <t>nANnXEq1</t>
-  </si>
-  <si>
-    <t>jT6rDiKd</t>
-  </si>
-  <si>
-    <t>FHN2StBA</t>
-  </si>
-  <si>
-    <t>OQeByHBT</t>
-  </si>
-  <si>
-    <t>kaBtSj8d</t>
-  </si>
-  <si>
-    <t>SwyqC715</t>
-  </si>
-  <si>
-    <t>ETztFjNl</t>
-  </si>
-  <si>
-    <t>BsvzIgcs</t>
-  </si>
-  <si>
-    <t>hv64Deq6</t>
-  </si>
-  <si>
-    <t>LmEDSsTl</t>
-  </si>
-  <si>
-    <t>wc56fIWJ</t>
-  </si>
-  <si>
-    <t>YJDXqaqi</t>
-  </si>
-  <si>
-    <t>Hs0r4fbb</t>
-  </si>
-  <si>
-    <t>GOJxNdb0</t>
-  </si>
-  <si>
-    <t>KSa84r7v</t>
-  </si>
-  <si>
-    <t>tjv0Zd6r</t>
-  </si>
-  <si>
-    <t>BNayopuL</t>
-  </si>
-  <si>
-    <t>RVJmXYHs</t>
-  </si>
-  <si>
-    <t>mtGTb1gp</t>
-  </si>
-  <si>
-    <t>2eGy30Pd</t>
-  </si>
-  <si>
-    <t>u8tSJssm</t>
-  </si>
-  <si>
-    <t>m4yUN6CD</t>
-  </si>
-  <si>
-    <t>xJ5sZ38P</t>
-  </si>
-  <si>
-    <t>0ury6Nba</t>
-  </si>
-  <si>
-    <t>deDOQKrO</t>
-  </si>
-  <si>
-    <t>mPV77sUF</t>
-  </si>
-  <si>
-    <t>Y5XObwZ2</t>
-  </si>
-  <si>
-    <t>l09mOfje</t>
-  </si>
-  <si>
-    <t>JIv0RZQu</t>
-  </si>
-  <si>
-    <t>YGHfcZis</t>
-  </si>
-  <si>
-    <t>rznvC6LD</t>
-  </si>
-  <si>
-    <t>plckJPTP</t>
-  </si>
-  <si>
-    <t>QFZome63</t>
-  </si>
-  <si>
-    <t>cc6qPAy4</t>
-  </si>
-  <si>
-    <t>WDdNRHDU</t>
-  </si>
-  <si>
-    <t>OFQzBqZ0</t>
-  </si>
-  <si>
-    <t>OhxrGjf2</t>
-  </si>
-  <si>
-    <t>3EyPYJA1</t>
-  </si>
-  <si>
-    <t>DnxN5O0p</t>
-  </si>
-  <si>
-    <t>n5vUnIrs</t>
-  </si>
-  <si>
-    <t>nxNJ5ags</t>
-  </si>
-  <si>
-    <t>rOI2Aed9</t>
-  </si>
-  <si>
-    <t>lYJmDP4t</t>
-  </si>
-  <si>
-    <t>1WaMVBgd</t>
-  </si>
-  <si>
-    <t>CmL2fOPK</t>
-  </si>
-  <si>
-    <t>2FDmFjPh</t>
-  </si>
-  <si>
-    <t>Rzjg8yal</t>
-  </si>
-  <si>
-    <t>HteNb7tW</t>
-  </si>
-  <si>
-    <t>zvXSwBt4</t>
-  </si>
-  <si>
-    <t>RSs0t8Ne</t>
-  </si>
-  <si>
-    <t>QBMLtpw5</t>
-  </si>
-  <si>
-    <t>DNCh8Fuz</t>
-  </si>
-  <si>
-    <t>M7F6O67K</t>
-  </si>
-  <si>
-    <t>cs1H2mkc</t>
-  </si>
-  <si>
-    <t>7UqzI7z1</t>
-  </si>
-  <si>
-    <t>m1dpaiXP</t>
-  </si>
-  <si>
-    <t>GykLu3yf</t>
-  </si>
-  <si>
-    <t>wen6yTeH</t>
-  </si>
-  <si>
-    <t>IllSHbKm</t>
-  </si>
-  <si>
-    <t>SmAymgh6</t>
-  </si>
-  <si>
-    <t>v7YH8dR5</t>
-  </si>
-  <si>
-    <t>uRXRw3dq</t>
-  </si>
-  <si>
-    <t>vFTRgCNV</t>
-  </si>
-  <si>
-    <t>N8IAtVIX</t>
-  </si>
-  <si>
-    <t>HhXSIwmT</t>
-  </si>
-  <si>
-    <t>nA5RoeuZ</t>
-  </si>
-  <si>
-    <t>HPtLZnZ5</t>
-  </si>
-  <si>
-    <t>2rvFrIBH</t>
-  </si>
-  <si>
-    <t>UtV7nwjF</t>
-  </si>
-  <si>
-    <t>KL5bIk75</t>
-  </si>
-  <si>
-    <t>RbA2crtd</t>
-  </si>
-  <si>
-    <t>LHdvFPwR</t>
-  </si>
-  <si>
-    <t>vV4rUP92</t>
-  </si>
-  <si>
-    <t>6NFKC7VY</t>
-  </si>
-  <si>
-    <t>iuW9uCiF</t>
-  </si>
-  <si>
-    <t>JPtx6mcR</t>
-  </si>
-  <si>
-    <t>pZ0hX5Ms</t>
-  </si>
-  <si>
-    <t>xlpW3sjw</t>
-  </si>
-  <si>
-    <t>Dk5DBUdR</t>
-  </si>
-  <si>
-    <t>jcdAE8tt</t>
-  </si>
-  <si>
-    <t>coe1NoST</t>
-  </si>
-  <si>
-    <t>pMBjfdVw</t>
-  </si>
-  <si>
-    <t>OYgnBpoZ</t>
-  </si>
-  <si>
-    <t>22Y5GbwS</t>
-  </si>
-  <si>
-    <t>FQAyD9jR</t>
-  </si>
-  <si>
-    <t>2imCXuEL</t>
-  </si>
-  <si>
-    <t>ViLFsDFA</t>
-  </si>
-  <si>
-    <t>oMyMZDKq</t>
-  </si>
-  <si>
-    <t>pTEr3nj7</t>
-  </si>
-  <si>
-    <t>yFGrgc7u</t>
-  </si>
-  <si>
-    <t>iTMwFxwo</t>
-  </si>
-  <si>
-    <t>ehfNHbUZ</t>
-  </si>
-  <si>
-    <t>Jy7FV0Ec</t>
-  </si>
-  <si>
-    <t>3KbnZNER</t>
-  </si>
-  <si>
-    <t>HQJyqPA4</t>
-  </si>
-  <si>
-    <t>ZRx2nxJb</t>
-  </si>
-  <si>
-    <t>f33jZ0Uk</t>
-  </si>
-  <si>
-    <t>xam7vv4i</t>
-  </si>
-  <si>
-    <t>TFjli87O</t>
-  </si>
-  <si>
-    <t>l5QqAPXa</t>
-  </si>
-  <si>
-    <t>nS4383L7</t>
-  </si>
-  <si>
-    <t>UyKl9t1r</t>
-  </si>
-  <si>
-    <t>JsDXjUpY</t>
-  </si>
-  <si>
-    <t>J7hphJq0</t>
-  </si>
-  <si>
-    <t>vBaWdM4Y</t>
-  </si>
-  <si>
-    <t>pOYyKv4i</t>
-  </si>
-  <si>
-    <t>jgg3m2yC</t>
-  </si>
-  <si>
-    <t>WP0MAEVH</t>
-  </si>
-  <si>
-    <t>HEGUvtRv</t>
-  </si>
-  <si>
-    <t>597XaiVH</t>
-  </si>
-  <si>
-    <t>xNxjGg7l</t>
-  </si>
-  <si>
-    <t>is3EgT19</t>
-  </si>
-  <si>
-    <t>ZRK2qG9v</t>
-  </si>
-  <si>
-    <t>x8PXgWB2</t>
-  </si>
-  <si>
-    <t>y2vOK1Ml</t>
-  </si>
-  <si>
-    <t>Jq17scDC</t>
-  </si>
-  <si>
-    <t>e8pnTE35</t>
-  </si>
-  <si>
-    <t>U3as48Ay</t>
-  </si>
-  <si>
-    <t>maWIWMcQ</t>
-  </si>
-  <si>
-    <t>ABUEVcoz</t>
-  </si>
-  <si>
-    <t>UjyI817N</t>
-  </si>
-  <si>
-    <t>dIpAhGus</t>
-  </si>
-  <si>
-    <t>kdEgH8PW</t>
-  </si>
-  <si>
-    <t>IJ9abJNY</t>
-  </si>
-  <si>
-    <t>HJwXoQW2</t>
-  </si>
-  <si>
-    <t>9Ff6fW8w</t>
-  </si>
-  <si>
-    <t>whEOG0VY</t>
-  </si>
-  <si>
-    <t>Q5YZANJQ</t>
-  </si>
-  <si>
-    <t>GcksD0KY</t>
-  </si>
-  <si>
-    <t>dsQCZjUR</t>
-  </si>
-  <si>
-    <t>SPr2iryL</t>
-  </si>
-  <si>
-    <t>zO1T5w9X</t>
-  </si>
-  <si>
-    <t>BEZIiHj2</t>
-  </si>
-  <si>
-    <t>gBbw7lgs</t>
-  </si>
-  <si>
-    <t>4ErlHKXI</t>
-  </si>
-  <si>
-    <t>TVfXg65V</t>
-  </si>
-  <si>
-    <t>SeqAwDkE</t>
-  </si>
-  <si>
-    <t>ceHo1B34</t>
-  </si>
-  <si>
-    <t>dgxIclLD</t>
-  </si>
-  <si>
-    <t>uvJThvx3</t>
-  </si>
-  <si>
-    <t>1NxDUhVB</t>
-  </si>
-  <si>
-    <t>qHjdSuAm</t>
-  </si>
-  <si>
-    <t>uVI011HD</t>
-  </si>
-  <si>
-    <t>2FoX1v0U</t>
-  </si>
-  <si>
-    <t>pV5fBtwZ</t>
-  </si>
-  <si>
-    <t>R4ZGZAiF</t>
-  </si>
-  <si>
-    <t>dE5ZjWvD</t>
-  </si>
-  <si>
-    <t>wb9nsS3S</t>
-  </si>
-  <si>
-    <t>MQsx8Ed3</t>
-  </si>
-  <si>
-    <t>tw3q5UnV</t>
-  </si>
-  <si>
-    <t>K2BMg2ZW</t>
-  </si>
-  <si>
-    <t>4ArYLxcs</t>
-  </si>
-  <si>
-    <t>giSPkNcr</t>
-  </si>
-  <si>
-    <t>mlLcJiUt</t>
-  </si>
-  <si>
-    <t>3EvNz9g2</t>
-  </si>
-  <si>
-    <t>sYUYGR8c</t>
-  </si>
-  <si>
-    <t>jy05lYHU</t>
-  </si>
-  <si>
-    <t>YLpeESqj</t>
-  </si>
-  <si>
-    <t>eubkP9DJ</t>
-  </si>
-  <si>
-    <t>zq6tB2Y9</t>
-  </si>
-  <si>
-    <t>xuAGymAm</t>
-  </si>
-  <si>
-    <t>u1XQGhvv</t>
-  </si>
-  <si>
-    <t>Hxu3ANPY</t>
-  </si>
-  <si>
-    <t>hyNsK0xD</t>
-  </si>
-  <si>
-    <t>hC8BqyS4</t>
-  </si>
-  <si>
-    <t>2xUSFFjl</t>
-  </si>
-  <si>
-    <t>C6GPqeBR</t>
-  </si>
-  <si>
-    <t>RODYZch6</t>
-  </si>
-  <si>
-    <t>Uc124C6g</t>
-  </si>
-  <si>
-    <t>9oRjR7n7</t>
-  </si>
-  <si>
-    <t>6vth76jv</t>
-  </si>
-  <si>
-    <t>VL6CBoTk</t>
-  </si>
-  <si>
-    <t>OkxteKfY</t>
-  </si>
-  <si>
-    <t>uqsCqPT7</t>
-  </si>
-  <si>
-    <t>R0jmtcSM</t>
-  </si>
-  <si>
-    <t>6ykcRzOm</t>
-  </si>
-  <si>
-    <t>JYcRydmu</t>
-  </si>
-  <si>
-    <t>f1dJXZU0</t>
-  </si>
-  <si>
-    <t>s65Ej9N0</t>
-  </si>
-  <si>
-    <t>7spB9pE8</t>
-  </si>
-  <si>
-    <t>LKiH6RoM</t>
-  </si>
-  <si>
-    <t>wESpZvkb</t>
-  </si>
-  <si>
-    <t>6voZZ2wh</t>
-  </si>
-  <si>
-    <t>ubjEIvCN</t>
-  </si>
-  <si>
-    <t>G5XGpqcz</t>
-  </si>
-  <si>
-    <t>XNyVACWc</t>
-  </si>
-  <si>
-    <t>1uotgopR</t>
-  </si>
-  <si>
-    <t>KMrT2709</t>
-  </si>
-  <si>
-    <t>WmJdMU2b</t>
-  </si>
-  <si>
-    <t>jBSAhwPS</t>
-  </si>
-  <si>
-    <t>kqZKBrbA</t>
-  </si>
-  <si>
-    <t>OYhvZNfE</t>
-  </si>
-  <si>
-    <t>BQRAW9R7</t>
-  </si>
-  <si>
-    <t>79mQD2H7</t>
-  </si>
-  <si>
-    <t>7wDmnAbB</t>
-  </si>
-  <si>
-    <t>zRjFBRwo</t>
-  </si>
-  <si>
-    <t>VzfWPqEo</t>
-  </si>
-  <si>
-    <t>ayMzG5QE</t>
-  </si>
-  <si>
-    <t>kWH9VWX7</t>
-  </si>
-  <si>
-    <t>7iVdJFBg</t>
-  </si>
-  <si>
-    <t>iKUELP3s</t>
-  </si>
-  <si>
-    <t>9ZAdG1l6</t>
-  </si>
-  <si>
-    <t>0779nM0E</t>
-  </si>
-  <si>
-    <t>jcE1wDZ1</t>
-  </si>
-  <si>
-    <t>PQqrdqDp</t>
-  </si>
-  <si>
-    <t>eyIcSkCf</t>
-  </si>
-  <si>
-    <t>zA1Z06vT</t>
-  </si>
-  <si>
-    <t>bVlihWcM</t>
-  </si>
-  <si>
-    <t>zKYRDccW</t>
-  </si>
-  <si>
-    <t>ia5ulIAX</t>
-  </si>
-  <si>
-    <t>tdAd5cjA</t>
-  </si>
-  <si>
-    <t>UybHgJMo</t>
-  </si>
-  <si>
-    <t>4deLJDSd</t>
-  </si>
-  <si>
-    <t>MIpdK8bg</t>
-  </si>
-  <si>
-    <t>gKLdFE2h</t>
-  </si>
-  <si>
-    <t>UisQ1ROh</t>
-  </si>
-  <si>
-    <t>zylTXH5L</t>
-  </si>
-  <si>
-    <t>kEEaBa56</t>
-  </si>
-  <si>
-    <t>EcC50XR4</t>
-  </si>
-  <si>
-    <t>Yax02ymv</t>
-  </si>
-  <si>
-    <t>BPVBWHmk</t>
-  </si>
-  <si>
-    <t>PeP18zuy</t>
-  </si>
-  <si>
-    <t>fyWpVjrx</t>
-  </si>
-  <si>
-    <t>XqC3THMK</t>
-  </si>
-  <si>
-    <t>wqEnPdvt</t>
-  </si>
-  <si>
-    <t>YKl2R3Kx</t>
-  </si>
-  <si>
-    <t>qSUpDhEc</t>
-  </si>
-  <si>
-    <t>IDXmNNCb</t>
-  </si>
-  <si>
-    <t>jfVRfHQ6</t>
-  </si>
-  <si>
-    <t>KzmnL153</t>
-  </si>
-  <si>
-    <t>jY7Irb0p</t>
-  </si>
-  <si>
-    <t>th2gEk7u</t>
-  </si>
-  <si>
-    <t>RmZujkyZ</t>
-  </si>
-  <si>
-    <t>5h3dBu07</t>
-  </si>
-  <si>
-    <t>hNIqKyXw</t>
-  </si>
-  <si>
-    <t>mvVh7xoO</t>
-  </si>
-  <si>
-    <t>6b2a2Tvb</t>
-  </si>
-  <si>
-    <t>3YHsZkdA</t>
-  </si>
-  <si>
-    <t>8XLYCjHT</t>
-  </si>
-  <si>
-    <t>xBxMpZRZ</t>
-  </si>
-  <si>
-    <t>2szjQIMT</t>
-  </si>
-  <si>
-    <t>DWfll3A4</t>
-  </si>
-  <si>
-    <t>as7pFyyO</t>
-  </si>
-  <si>
-    <t>3JFf2Y0R</t>
-  </si>
-  <si>
-    <t>uS9mLJCn</t>
-  </si>
-  <si>
-    <t>kbQO72cH</t>
-  </si>
-  <si>
-    <t>h3DeBfzT</t>
-  </si>
-  <si>
-    <t>YGYtAITL</t>
-  </si>
-  <si>
-    <t>OlNFkrUB</t>
-  </si>
-  <si>
-    <t>Z8CVYMWc</t>
-  </si>
-  <si>
-    <t>GoiXZiwV</t>
-  </si>
-  <si>
-    <t>ZQ9g7lN1</t>
-  </si>
-  <si>
-    <t>c1whLzzL</t>
-  </si>
-  <si>
-    <t>mCw8LgVW</t>
-  </si>
-  <si>
-    <t>OVxbRkbw</t>
-  </si>
-  <si>
-    <t>KgHBzNMA</t>
-  </si>
-  <si>
-    <t>HCTjOqK3</t>
-  </si>
-  <si>
-    <t>fUnspY5i</t>
-  </si>
-  <si>
-    <t>QLPPOxFM</t>
-  </si>
-  <si>
-    <t>x1HQ8zmp</t>
-  </si>
-  <si>
-    <t>KrrCBry1</t>
-  </si>
-  <si>
-    <t>6YfwkV1p</t>
-  </si>
-  <si>
-    <t>w674jB93</t>
-  </si>
-  <si>
-    <t>XsnLp6OJ</t>
-  </si>
-  <si>
-    <t>kzrKJ3bI</t>
-  </si>
-  <si>
-    <t>yV7QHkOy</t>
-  </si>
-  <si>
-    <t>yheWv0GB</t>
-  </si>
-  <si>
-    <t>esgxpJFF</t>
-  </si>
-  <si>
-    <t>dratov00</t>
-  </si>
-  <si>
-    <t>9EIP6kMq</t>
-  </si>
-  <si>
-    <t>RTbBZjbB</t>
-  </si>
-  <si>
-    <t>TPzq3PkF</t>
-  </si>
-  <si>
-    <t>N1LdARKv</t>
-  </si>
-  <si>
-    <t>JPY8O6Hh</t>
-  </si>
-  <si>
-    <t>66DsKrZV</t>
-  </si>
-  <si>
-    <t>fn1aTUaV</t>
-  </si>
-  <si>
-    <t>SXjkKHcf</t>
-  </si>
-  <si>
-    <t>60Av6uzp</t>
-  </si>
-  <si>
-    <t>oURshRiP</t>
-  </si>
-  <si>
-    <t>PMzKeUPC</t>
-  </si>
-  <si>
-    <t>fibYTNGR</t>
-  </si>
-  <si>
-    <t>8hZhkMiO</t>
-  </si>
-  <si>
-    <t>HSyWizV0</t>
-  </si>
-  <si>
-    <t>esN64DKy</t>
-  </si>
-  <si>
-    <t>YflAKYSH</t>
-  </si>
-  <si>
-    <t>c6KChY8k</t>
-  </si>
-  <si>
-    <t>7RcDdly8</t>
-  </si>
-  <si>
-    <t>wOFYdAEO</t>
-  </si>
-  <si>
-    <t>z34QLfuF</t>
-  </si>
-  <si>
-    <t>1ah30fGV</t>
-  </si>
-  <si>
-    <t>i5txZLw4</t>
-  </si>
-  <si>
-    <t>SRgpM89Q</t>
-  </si>
-  <si>
-    <t>oHSyU0HW</t>
-  </si>
-  <si>
-    <t>iJIPnY8D</t>
-  </si>
-  <si>
-    <t>IyEb37dc</t>
-  </si>
-  <si>
-    <t>NqDdtik5</t>
-  </si>
-  <si>
-    <t>IGED7ZED</t>
-  </si>
-  <si>
-    <t>iRmL8iNy</t>
-  </si>
-  <si>
-    <t>xzwUwZi4</t>
-  </si>
-  <si>
-    <t>kDCc0Q8m</t>
-  </si>
-  <si>
-    <t>YgsYJ16m</t>
-  </si>
-  <si>
-    <t>g6aK5xMe</t>
-  </si>
-  <si>
-    <t>Afbvg7Mz</t>
-  </si>
-  <si>
-    <t>OuwfNUvS</t>
-  </si>
-  <si>
-    <t>waPncTMT</t>
-  </si>
-  <si>
-    <t>VvnN6K0A</t>
-  </si>
-  <si>
-    <t>4HForwtJ</t>
-  </si>
-  <si>
-    <t>IMPy53AK</t>
-  </si>
-  <si>
-    <t>5FFVTwCE</t>
-  </si>
-  <si>
-    <t>h4uNXgCr</t>
-  </si>
-  <si>
-    <t>hpouXnQ6</t>
-  </si>
-  <si>
-    <t>U2h4Z7X8</t>
-  </si>
-  <si>
-    <t>DoXkXnQ9</t>
-  </si>
-  <si>
-    <t>2sDwBHtS</t>
-  </si>
-  <si>
-    <t>ctfeX0iO</t>
-  </si>
-  <si>
-    <t>Nt3bIU9V</t>
-  </si>
-  <si>
-    <t>Uh3Oktpc</t>
-  </si>
-  <si>
-    <t>RFtLXhno</t>
-  </si>
-  <si>
-    <t>mTaxdsFg</t>
-  </si>
-  <si>
-    <t>VkMGgYTt</t>
-  </si>
-  <si>
-    <t>WosdYyOV</t>
-  </si>
-  <si>
-    <t>XD38I2SH</t>
-  </si>
-  <si>
-    <t>KJRZwOyJ</t>
-  </si>
-  <si>
-    <t>hrghuo3t</t>
-  </si>
-  <si>
-    <t>LO2aRvk8</t>
-  </si>
-  <si>
-    <t>bOoJ7Ge9</t>
-  </si>
-  <si>
-    <t>TVnC9cQ8</t>
-  </si>
-  <si>
-    <t>E03yivUu</t>
-  </si>
-  <si>
-    <t>Pu2V705b</t>
-  </si>
-  <si>
-    <t>1uBP7PRl</t>
-  </si>
-  <si>
-    <t>CaXrKfWw</t>
-  </si>
-  <si>
-    <t>YsIHp9B0</t>
-  </si>
-  <si>
-    <t>N73seqeP</t>
-  </si>
-  <si>
-    <t>rYlVIp29</t>
-  </si>
-  <si>
-    <t>NVy6dH9i</t>
-  </si>
-  <si>
-    <t>uh8FExqq</t>
-  </si>
-  <si>
-    <t>5ihWgfBH</t>
-  </si>
-  <si>
-    <t>LJoiwwz5</t>
-  </si>
-  <si>
-    <t>aHakamzV</t>
-  </si>
-  <si>
-    <t>Ri0cKHQg</t>
-  </si>
-  <si>
-    <t>aunVRn4c</t>
-  </si>
-  <si>
-    <t>z2lU3e42</t>
-  </si>
-  <si>
-    <t>DBbs7RkR</t>
-  </si>
-  <si>
-    <t>rYfFP4Qr</t>
-  </si>
-  <si>
-    <t>5ddwAwfd</t>
-  </si>
-  <si>
-    <t>xow0Os5F</t>
-  </si>
-  <si>
-    <t>b4yoHU82</t>
-  </si>
-  <si>
-    <t>wdsq5yX6</t>
-  </si>
-  <si>
-    <t>oEmIZdHt</t>
-  </si>
-  <si>
-    <t>bVjt2EEn</t>
-  </si>
-  <si>
-    <t>Zv41P5NT</t>
-  </si>
-  <si>
-    <t>1yTXncG7</t>
-  </si>
-  <si>
-    <t>P8RKd9He</t>
-  </si>
-  <si>
-    <t>MhGLoiTV</t>
-  </si>
-  <si>
-    <t>b6aLdq2z</t>
-  </si>
-  <si>
-    <t>9rqxkCPl</t>
-  </si>
-  <si>
-    <t>N3F2vpfU</t>
-  </si>
-  <si>
-    <t>UZGbvrBu</t>
-  </si>
-  <si>
-    <t>tEWleEYw</t>
-  </si>
-  <si>
-    <t>sbSq8XKq</t>
-  </si>
-  <si>
-    <t>et9jkHsd</t>
-  </si>
-  <si>
-    <t>mmM3M658</t>
-  </si>
-  <si>
-    <t>hIEA5vn9</t>
-  </si>
-  <si>
-    <t>jbzqrFnf</t>
-  </si>
-  <si>
-    <t>0K5KiHea</t>
-  </si>
-  <si>
-    <t>h6rCKSxB</t>
-  </si>
-  <si>
-    <t>4Xlf4ICr</t>
-  </si>
-  <si>
-    <t>21sXAcuE</t>
-  </si>
-  <si>
-    <t>5jD45F3V</t>
-  </si>
-  <si>
-    <t>0gQbFOv9</t>
-  </si>
-  <si>
-    <t>mvTcjdLA</t>
-  </si>
-  <si>
-    <t>xcrxASsf</t>
-  </si>
-  <si>
-    <t>timkEpWU</t>
-  </si>
-  <si>
-    <t>usHYBYTz</t>
-  </si>
-  <si>
-    <t>qrmEQMeV</t>
-  </si>
-  <si>
-    <t>mMybo41c</t>
-  </si>
-  <si>
-    <t>AgZEALBd</t>
-  </si>
-  <si>
-    <t>EEbKT8TG</t>
-  </si>
-  <si>
-    <t>Lq534HKp</t>
-  </si>
-  <si>
-    <t>6kCSlrAn</t>
-  </si>
-  <si>
-    <t>gn7a0t04</t>
-  </si>
-  <si>
-    <t>ZifVTfm4</t>
-  </si>
-  <si>
-    <t>GmYSC0zE</t>
-  </si>
-  <si>
-    <t>XIbNgTud</t>
-  </si>
-  <si>
-    <t>C5Qu4kx8</t>
-  </si>
-  <si>
-    <t>cLBd3AyA</t>
-  </si>
-  <si>
-    <t>zl9fTCkS</t>
-  </si>
-  <si>
-    <t>80QBGCaf</t>
-  </si>
-  <si>
-    <t>UcRGwFxZ</t>
-  </si>
-  <si>
-    <t>IPtVhsXj</t>
-  </si>
-  <si>
-    <t>Gia9aKSY</t>
-  </si>
-  <si>
-    <t>rXDA3N2d</t>
-  </si>
-  <si>
-    <t>4eS8HJa0</t>
-  </si>
-  <si>
-    <t>1BuaMY7b</t>
-  </si>
-  <si>
-    <t>cnAwpmTv</t>
-  </si>
-  <si>
-    <t>hC3RbuTH</t>
-  </si>
-  <si>
-    <t>vBC2LMKK</t>
-  </si>
-  <si>
-    <t>ZajAbm5F</t>
-  </si>
-  <si>
-    <t>oW7snNP7</t>
-  </si>
-  <si>
-    <t>4IZQNkB7</t>
-  </si>
-  <si>
-    <t>GHQaZjv0</t>
-  </si>
-  <si>
-    <t>dgSsErgU</t>
-  </si>
-  <si>
-    <t>UP69jVy2</t>
-  </si>
-  <si>
-    <t>on2lnb4U</t>
-  </si>
-  <si>
-    <t>kQumlPEV</t>
-  </si>
-  <si>
-    <t>qAAscH0z</t>
-  </si>
-  <si>
-    <t>fyEl2SI1</t>
-  </si>
-  <si>
-    <t>EEqisEW7</t>
-  </si>
-  <si>
-    <t>CVLN1Efq</t>
-  </si>
-  <si>
-    <t>wh9IhbXR</t>
-  </si>
-  <si>
-    <t>9HXqZpt4</t>
-  </si>
-  <si>
-    <t>l0UoeQJb</t>
-  </si>
-  <si>
-    <t>LtLtKVBl</t>
-  </si>
-  <si>
-    <t>gq1FciPe</t>
-  </si>
-  <si>
-    <t>0zK4GxPC</t>
-  </si>
-  <si>
-    <t>ikHepb2L</t>
-  </si>
-  <si>
-    <t>nDVfUNyh</t>
-  </si>
-  <si>
-    <t>Pi2nhCRu</t>
-  </si>
-  <si>
-    <t>wdlcQqme</t>
-  </si>
-  <si>
-    <t>3AePc5WH</t>
-  </si>
-  <si>
-    <t>kMXXB2UZ</t>
-  </si>
-  <si>
-    <t>zctifPJw</t>
-  </si>
-  <si>
-    <t>8ILQNjJW</t>
-  </si>
-  <si>
-    <t>MMCRABOG</t>
-  </si>
-  <si>
-    <t>ZDAzt1Jm</t>
-  </si>
-  <si>
-    <t>5k5I3gwX</t>
-  </si>
-  <si>
-    <t>kCePmu7A</t>
-  </si>
-  <si>
-    <t>axLyB5Om</t>
-  </si>
-  <si>
-    <t>JZ3OAuUH</t>
-  </si>
-  <si>
-    <t>4uDxTTkE</t>
-  </si>
-  <si>
-    <t>g1UUY8c8</t>
-  </si>
-  <si>
-    <t>M5CCR1Gh</t>
-  </si>
-  <si>
-    <t>daHr8sEq</t>
-  </si>
-  <si>
-    <t>BQm4QfqN</t>
-  </si>
-  <si>
-    <t>fUbj2nZd</t>
-  </si>
-  <si>
-    <t>IhYaAOf0</t>
-  </si>
-  <si>
-    <t>cOwu98Af</t>
-  </si>
-  <si>
-    <t>N7XY1stJ</t>
-  </si>
-  <si>
-    <t>jdBc6kAS</t>
-  </si>
-  <si>
-    <t>daDTawlV</t>
-  </si>
-  <si>
-    <t>c7t9VBIn</t>
-  </si>
-  <si>
-    <t>MbtpGYNB</t>
-  </si>
-  <si>
-    <t>1Bv9DXTQ</t>
-  </si>
-  <si>
-    <t>z5WbfrFC</t>
-  </si>
-  <si>
-    <t>4cUi2l8q</t>
-  </si>
-  <si>
-    <t>nwRAftTt</t>
-  </si>
-  <si>
-    <t>yyMZRkDg</t>
-  </si>
-  <si>
-    <t>SezZQMQS</t>
-  </si>
-  <si>
-    <t>igiae7TU</t>
-  </si>
-  <si>
-    <t>3BBoHJKn</t>
-  </si>
-  <si>
-    <t>SQzrWX3u</t>
-  </si>
-  <si>
-    <t>N6QIPh11</t>
-  </si>
-  <si>
-    <t>vkdzY4GT</t>
-  </si>
-  <si>
-    <t>JMKahSA9</t>
-  </si>
-  <si>
-    <t>R2qw5oMr</t>
-  </si>
-  <si>
-    <t>I3djB6cj</t>
-  </si>
-  <si>
-    <t>OjEHipcg</t>
-  </si>
-  <si>
-    <t>3OoaRrBt</t>
-  </si>
-  <si>
-    <t>z694VKVT</t>
-  </si>
-  <si>
-    <t>LC0j3wTn</t>
-  </si>
-  <si>
-    <t>91rjxlnt</t>
-  </si>
-  <si>
-    <t>qYLgcbzw</t>
-  </si>
-  <si>
-    <t>wSWhgG7a</t>
-  </si>
-  <si>
-    <t>YSA9EvQI</t>
-  </si>
-  <si>
-    <t>6AFzblXo</t>
-  </si>
-  <si>
-    <t>hQVkgiWn</t>
-  </si>
-  <si>
-    <t>SH13MTKV</t>
-  </si>
-  <si>
-    <t>BUO0pCI8</t>
-  </si>
-  <si>
-    <t>R8DuhvO3</t>
-  </si>
-  <si>
-    <t>ldt10RBb</t>
-  </si>
-  <si>
-    <t>Mo7DrNzO</t>
-  </si>
-  <si>
-    <t>iHiiQKUp</t>
-  </si>
-  <si>
-    <t>LxUaNGxx</t>
-  </si>
-  <si>
-    <t>9xOykie3</t>
-  </si>
-  <si>
-    <t>qROt2zYW</t>
-  </si>
-  <si>
-    <t>vEch6410</t>
-  </si>
-  <si>
-    <t>RGeusti5</t>
-  </si>
-  <si>
-    <t>vnGbALvC</t>
-  </si>
-  <si>
-    <t>w3qrFxRh</t>
-  </si>
-  <si>
-    <t>WGO0Pzyx</t>
-  </si>
-  <si>
-    <t>lD1GMHth</t>
-  </si>
-  <si>
-    <t>DAT4YBAj</t>
-  </si>
-  <si>
-    <t>kk0Hk4xT</t>
-  </si>
-  <si>
-    <t>kCPZu9GO</t>
-  </si>
-  <si>
-    <t>sOvqMDxS</t>
-  </si>
-  <si>
-    <t>YHQa0LZI</t>
-  </si>
-  <si>
-    <t>R9fydghm</t>
-  </si>
-  <si>
-    <t>8UOVGcVG</t>
-  </si>
-  <si>
-    <t>wpo7hX3E</t>
-  </si>
-  <si>
-    <t>9g3G0OEp</t>
-  </si>
-  <si>
-    <t>FVFJ1ZDx</t>
-  </si>
-  <si>
-    <t>dTI2Szf7</t>
-  </si>
-  <si>
-    <t>bIrmfZzH</t>
-  </si>
-  <si>
-    <t>NoCAuDYz</t>
-  </si>
-  <si>
-    <t>zMjpchje</t>
-  </si>
-  <si>
-    <t>nAtpKjQ8</t>
-  </si>
-  <si>
-    <t>NwNviksA</t>
-  </si>
-  <si>
-    <t>DgFycbBX</t>
-  </si>
-  <si>
-    <t>2qlIJUQ7</t>
-  </si>
-  <si>
-    <t>1nUYr3ZG</t>
-  </si>
-  <si>
-    <t>Cu4HqRZ3</t>
-  </si>
-  <si>
-    <t>AHy3ZuoD</t>
-  </si>
-  <si>
-    <t>ays5oeAI</t>
-  </si>
-  <si>
-    <t>8j91ivFl</t>
-  </si>
-  <si>
-    <t>L0ERiOZu</t>
-  </si>
-  <si>
-    <t>dt6JCIsg</t>
-  </si>
-  <si>
-    <t>tJcl7Lkm</t>
-  </si>
-  <si>
-    <t>jfYenuee</t>
-  </si>
-  <si>
-    <t>K2uS5TMB</t>
-  </si>
-  <si>
-    <t>6bthReMp</t>
-  </si>
-  <si>
-    <t>wWn2rqZV</t>
-  </si>
-  <si>
-    <t>xFn1T4uP</t>
-  </si>
-  <si>
-    <t>nylXA2ER</t>
-  </si>
-  <si>
-    <t>wyHpJf8T</t>
-  </si>
-  <si>
-    <t>2BpmSHnx</t>
-  </si>
-  <si>
-    <t>MyYB4dlY</t>
-  </si>
-  <si>
-    <t>YXdan1n8</t>
-  </si>
-  <si>
-    <t>LV8sZ3C3</t>
-  </si>
-  <si>
-    <t>SuB9CPbx</t>
-  </si>
-  <si>
-    <t>Fypna4AK</t>
-  </si>
-  <si>
-    <t>E5gxQ67k</t>
-  </si>
-  <si>
-    <t>OucKWmGG</t>
-  </si>
-  <si>
-    <t>3bwwvK0D</t>
-  </si>
-  <si>
-    <t>7EZk5wBR</t>
-  </si>
-  <si>
-    <t>jwdCodx1</t>
-  </si>
-  <si>
-    <t>7YNjm5kN</t>
-  </si>
-  <si>
-    <t>iwA73Cpv</t>
-  </si>
-  <si>
-    <t>YM2rZLwy</t>
-  </si>
-  <si>
-    <t>iEfEdoUI</t>
-  </si>
-  <si>
-    <t>kWPFyGcK</t>
-  </si>
-  <si>
-    <t>D5aR9kh7</t>
-  </si>
-  <si>
-    <t>nz9cRHyP</t>
-  </si>
-  <si>
-    <t>DWu2zg29</t>
-  </si>
-  <si>
-    <t>cqWWukBJ</t>
-  </si>
-  <si>
-    <t>6HynZdFo</t>
-  </si>
-  <si>
-    <t>4Ard7lH2</t>
-  </si>
-  <si>
-    <t>oSpYmXhc</t>
-  </si>
-  <si>
-    <t>emwJgELZ</t>
-  </si>
-  <si>
-    <t>KO3Pw8Ub</t>
-  </si>
-  <si>
-    <t>raIU7tvR</t>
-  </si>
-  <si>
-    <t>SLBCZTLX</t>
-  </si>
-  <si>
-    <t>8nN1NQCj</t>
-  </si>
-  <si>
-    <t>sZEOkBmh</t>
-  </si>
-  <si>
-    <t>zCE6UDr2</t>
-  </si>
-  <si>
-    <t>wMncDmJy</t>
-  </si>
-  <si>
-    <t>Xj0bQdqy</t>
-  </si>
-  <si>
-    <t>S4js6mA9</t>
-  </si>
-  <si>
-    <t>zJnin04x</t>
-  </si>
-  <si>
-    <t>RLCJEvKi</t>
-  </si>
-  <si>
-    <t>y8XDyMt3</t>
-  </si>
-  <si>
-    <t>tEcgS69Y</t>
-  </si>
-  <si>
-    <t>MofvJC1q</t>
-  </si>
-  <si>
-    <t>sjWfh8ZG</t>
-  </si>
-  <si>
-    <t>JmFuhZ2i</t>
-  </si>
-  <si>
-    <t>eWZCJXld</t>
-  </si>
-  <si>
-    <t>MAUtfmfg</t>
-  </si>
-  <si>
-    <t>qXSnUCiZ</t>
-  </si>
-  <si>
-    <t>EVJxLAWN</t>
-  </si>
-  <si>
-    <t>kwBPsXTZ</t>
-  </si>
-  <si>
-    <t>f7cvA5ai</t>
-  </si>
-  <si>
-    <t>mhhL8L3p</t>
-  </si>
-  <si>
-    <t>VSzShzmC</t>
-  </si>
-  <si>
-    <t>bvIHOm98</t>
-  </si>
-  <si>
-    <t>kBrwVxg3</t>
-  </si>
-  <si>
-    <t>W896w8vL</t>
-  </si>
-  <si>
-    <t>fDvIuDUd</t>
-  </si>
-  <si>
-    <t>naIVfQko</t>
-  </si>
-  <si>
-    <t>GFPAK2Ki</t>
-  </si>
-  <si>
-    <t>aBSfAL1p</t>
-  </si>
-  <si>
-    <t>xpItQNMq</t>
-  </si>
-  <si>
-    <t>E5NoRRKn</t>
-  </si>
-  <si>
-    <t>VqP8B3QD</t>
-  </si>
-  <si>
-    <t>UW1jLz4z</t>
-  </si>
-  <si>
-    <t>lbGThFzs</t>
-  </si>
-  <si>
-    <t>NLNghNJr</t>
-  </si>
-  <si>
-    <t>hM9fWa8e</t>
-  </si>
-  <si>
-    <t>SXPpRF9s</t>
-  </si>
-  <si>
-    <t>qxxslVki</t>
-  </si>
-  <si>
-    <t>cNv6hVn2</t>
-  </si>
-  <si>
-    <t>zsQq8JfP</t>
-  </si>
-  <si>
-    <t>KnK5pmCK</t>
-  </si>
-  <si>
-    <t>dCnPdpHr</t>
-  </si>
-  <si>
-    <t>Rt4JdYPp</t>
-  </si>
-  <si>
-    <t>8zlsRl9n</t>
-  </si>
-  <si>
-    <t>XuDnF7r4</t>
-  </si>
-  <si>
-    <t>VVqtvfBh</t>
-  </si>
-  <si>
-    <t>6ge8YnZJ</t>
-  </si>
-  <si>
-    <t>oMTwMQX2</t>
-  </si>
-  <si>
-    <t>O6Ngiqsq</t>
-  </si>
-  <si>
-    <t>tEyUcMnS</t>
-  </si>
-  <si>
-    <t>7UIMf27P</t>
-  </si>
-  <si>
-    <t>lWLzLaq7</t>
-  </si>
-  <si>
-    <t>5L9lKGCr</t>
-  </si>
-  <si>
-    <t>NzPyeope</t>
-  </si>
-  <si>
-    <t>kzdVkMNs</t>
-  </si>
-  <si>
-    <t>p1awAchC</t>
-  </si>
-  <si>
-    <t>655TIkkV</t>
-  </si>
-  <si>
-    <t>JuPAaSLb</t>
-  </si>
-  <si>
-    <t>drCwK6zh</t>
-  </si>
-  <si>
-    <t>Lc06ym9v</t>
-  </si>
-  <si>
-    <t>UxtRONeP</t>
-  </si>
-  <si>
-    <t>4HlDnr23</t>
-  </si>
-  <si>
-    <t>3ouLj9ev</t>
-  </si>
-  <si>
-    <t>06igSGii</t>
-  </si>
-  <si>
-    <t>KvJAAe6m</t>
-  </si>
-  <si>
-    <t>s3O8UNzR</t>
-  </si>
-  <si>
-    <t>OSS6dpdZ</t>
-  </si>
-  <si>
-    <t>40KLR5CO</t>
-  </si>
-  <si>
-    <t>gHvSZdpE</t>
-  </si>
-  <si>
-    <t>lFgSsxrm</t>
-  </si>
-  <si>
-    <t>nGvJZd0n</t>
-  </si>
-  <si>
-    <t>DBYKvkik</t>
-  </si>
-  <si>
-    <t>8gXD81yO</t>
-  </si>
-  <si>
-    <t>WZL5rpFW</t>
-  </si>
-  <si>
-    <t>zFwGrUF1</t>
-  </si>
-  <si>
-    <t>CClchMEo</t>
-  </si>
-  <si>
-    <t>iTDBswXd</t>
-  </si>
-  <si>
-    <t>i93Tg6dF</t>
-  </si>
-  <si>
-    <t>CWI3AdXp</t>
-  </si>
-  <si>
-    <t>XZO0bIhv</t>
-  </si>
-  <si>
-    <t>PaLbu4rJ</t>
-  </si>
-  <si>
-    <t>eZxIOLvk</t>
-  </si>
-  <si>
-    <t>Izj4tSRt</t>
-  </si>
-  <si>
-    <t>fRxEHMbU</t>
-  </si>
-  <si>
-    <t>YbMdufX9</t>
-  </si>
-  <si>
-    <t>X2DZeNIe</t>
-  </si>
-  <si>
-    <t>NwK69gYY</t>
-  </si>
-  <si>
-    <t>PQAmSosD</t>
-  </si>
-  <si>
-    <t>DrjppIaQ</t>
-  </si>
-  <si>
-    <t>kmJtAi0D</t>
-  </si>
-  <si>
-    <t>KAv1DWto</t>
-  </si>
-  <si>
-    <t>PrWrxAEH</t>
-  </si>
-  <si>
-    <t>xSfcl4Si</t>
-  </si>
-  <si>
-    <t>ajkQ0s9U</t>
-  </si>
-  <si>
-    <t>3qn7I1kx</t>
-  </si>
-  <si>
-    <t>c1jph9Uh</t>
-  </si>
-  <si>
-    <t>0E7et9J0</t>
-  </si>
-  <si>
-    <t>bYOurqqt</t>
-  </si>
-  <si>
-    <t>vHuSkuTo</t>
-  </si>
-  <si>
-    <t>ZqSMNWEF</t>
-  </si>
-  <si>
-    <t>BOZKl97j</t>
-  </si>
-  <si>
-    <t>VdMZL7B2</t>
-  </si>
-  <si>
-    <t>KJmHpoZC</t>
-  </si>
-  <si>
-    <t>p1KK5rYn</t>
-  </si>
-  <si>
-    <t>9GiuGx3x</t>
-  </si>
-  <si>
-    <t>EMC8VzHu</t>
-  </si>
-  <si>
-    <t>JTpdWukU</t>
-  </si>
-  <si>
-    <t>RUASyoew</t>
-  </si>
-  <si>
-    <t>m4wnINeY</t>
-  </si>
-  <si>
-    <t>HcXk7tlV</t>
-  </si>
-  <si>
-    <t>hi7ucmCN</t>
-  </si>
-  <si>
-    <t>qrlhFcKx</t>
-  </si>
-  <si>
-    <t>SG2b0xum</t>
-  </si>
-  <si>
-    <t>hznJfAj8</t>
-  </si>
-  <si>
-    <t>fojuAFt0</t>
-  </si>
-  <si>
-    <t>XaUJrrKg</t>
-  </si>
-  <si>
-    <t>YZYEqahZ</t>
-  </si>
-  <si>
-    <t>24bT9cVq</t>
-  </si>
-  <si>
-    <t>NP3YFomq</t>
-  </si>
-  <si>
-    <t>gMAIjtyk</t>
-  </si>
-  <si>
-    <t>Nqa5bglA</t>
-  </si>
-  <si>
-    <t>zsMexLt4</t>
-  </si>
-  <si>
-    <t>jPyNZRtw</t>
-  </si>
-  <si>
-    <t>iWepT9xY</t>
-  </si>
-  <si>
-    <t>p2mL9UQs</t>
-  </si>
-  <si>
-    <t>tditx9g1</t>
-  </si>
-  <si>
-    <t>mmtNWbWX</t>
-  </si>
-  <si>
-    <t>PBhq6Nx5</t>
-  </si>
-  <si>
-    <t>sd6FcKgL</t>
-  </si>
-  <si>
-    <t>QxXKzznw</t>
-  </si>
-  <si>
-    <t>OVN9fyQ1</t>
-  </si>
-  <si>
-    <t>juapSUsx</t>
-  </si>
-  <si>
-    <t>c1Zrd6bu</t>
-  </si>
-  <si>
-    <t>qLYAQhnj</t>
-  </si>
-  <si>
-    <t>iJAilf5A</t>
-  </si>
-  <si>
-    <t>S88JTN4v</t>
-  </si>
-  <si>
-    <t>pLsxjHSg</t>
-  </si>
-  <si>
-    <t>gzxY2PJa</t>
-  </si>
-  <si>
-    <t>ZzOmAMEl</t>
-  </si>
-  <si>
-    <t>CdNZYdc1</t>
-  </si>
-  <si>
-    <t>TuIOZfPm</t>
-  </si>
-  <si>
-    <t>0K2CDPIS</t>
-  </si>
-  <si>
-    <t>ZIhyNsjG</t>
-  </si>
-  <si>
-    <t>9PGMzOlH</t>
-  </si>
-  <si>
-    <t>Ir5emrR6</t>
-  </si>
-  <si>
-    <t>Jr1HsNSV</t>
-  </si>
-  <si>
-    <t>h2Oe7fq9</t>
-  </si>
-  <si>
-    <t>Aiw6qIAW</t>
-  </si>
-  <si>
-    <t>QB6Fm2xW</t>
-  </si>
-  <si>
-    <t>qkndASNH</t>
-  </si>
-  <si>
-    <t>O5XSZ8Uq</t>
-  </si>
-  <si>
-    <t>NiNMvBqt</t>
-  </si>
-  <si>
-    <t>7EotBTMd</t>
-  </si>
-  <si>
-    <t>WBe4ajPY</t>
-  </si>
-  <si>
-    <t>Y1IhVOMq</t>
-  </si>
-  <si>
-    <t>91KHPBIl</t>
-  </si>
-  <si>
-    <t>dEFoqWHL</t>
-  </si>
-  <si>
-    <t>5v8yCnLt</t>
-  </si>
-  <si>
-    <t>KF6AQMr4</t>
-  </si>
-  <si>
-    <t>1fvII5hO</t>
-  </si>
-  <si>
-    <t>uuys5yPw</t>
-  </si>
-  <si>
-    <t>sswmCjPe</t>
-  </si>
-  <si>
-    <t>LQdmZDoq</t>
-  </si>
-  <si>
-    <t>UUgjRnBy</t>
-  </si>
-  <si>
-    <t>0tA3K3jF</t>
-  </si>
-  <si>
-    <t>m5h6EY7k</t>
-  </si>
-  <si>
-    <t>vsvjbIC9</t>
-  </si>
-  <si>
-    <t>ztCw5qS6</t>
-  </si>
-  <si>
-    <t>Rwp6Ywhs</t>
-  </si>
-  <si>
-    <t>oT6ojV7X</t>
-  </si>
-  <si>
-    <t>yrhTqItq</t>
-  </si>
-  <si>
-    <t>iN5XHbJS</t>
-  </si>
-  <si>
-    <t>i9JHE5M5</t>
-  </si>
-  <si>
-    <t>WKtWsz79</t>
-  </si>
-  <si>
-    <t>5Xr7Q8MQ</t>
-  </si>
-  <si>
-    <t>9K2o4Vps</t>
-  </si>
-  <si>
-    <t>fyMwixLq</t>
-  </si>
-  <si>
-    <t>H5S5gpXN</t>
-  </si>
-  <si>
-    <t>28mIajlQ</t>
-  </si>
-  <si>
-    <t>84nRhw0N</t>
-  </si>
-  <si>
-    <t>eBsGw1fd</t>
-  </si>
-  <si>
-    <t>ni4IYP7b</t>
-  </si>
-  <si>
-    <t>J1RbW04F</t>
-  </si>
-  <si>
-    <t>LBPzDZ10</t>
-  </si>
-  <si>
-    <t>Dyju990T</t>
-  </si>
-  <si>
-    <t>c1z0pV0L</t>
-  </si>
-  <si>
-    <t>AvVMWcIT</t>
-  </si>
-  <si>
-    <t>xm39UZXF</t>
-  </si>
-  <si>
-    <t>QSw7HnaH</t>
-  </si>
-  <si>
-    <t>g3wzjnHk</t>
-  </si>
-  <si>
-    <t>GjtzP8FK</t>
-  </si>
-  <si>
-    <t>QdZtMB5q</t>
-  </si>
-  <si>
-    <t>TOqpziuv</t>
-  </si>
-  <si>
-    <t>EKKKmpNU</t>
-  </si>
-  <si>
-    <t>nouD0GKp</t>
-  </si>
-  <si>
-    <t>MxtPqNNV</t>
-  </si>
-  <si>
-    <t>zvcUSqc0</t>
+    <t>G58BwyFj</t>
+  </si>
+  <si>
+    <t>3WZZanD5</t>
+  </si>
+  <si>
+    <t>BNfp3YdH</t>
+  </si>
+  <si>
+    <t>qVHzUfzL</t>
+  </si>
+  <si>
+    <t>ZgORPw1V</t>
+  </si>
+  <si>
+    <t>CuOCSPEf</t>
+  </si>
+  <si>
+    <t>qSRgKFs4</t>
+  </si>
+  <si>
+    <t>NKITiVzT</t>
+  </si>
+  <si>
+    <t>T0KidVTk</t>
+  </si>
+  <si>
+    <t>vRE3NtFy</t>
+  </si>
+  <si>
+    <t>vtNFcODR</t>
+  </si>
+  <si>
+    <t>xmcyAWhd</t>
+  </si>
+  <si>
+    <t>B0QPkYUx</t>
+  </si>
+  <si>
+    <t>tzG80GvN</t>
+  </si>
+  <si>
+    <t>SVQLjD2v</t>
+  </si>
+  <si>
+    <t>OMAfIKxO</t>
+  </si>
+  <si>
+    <t>kkylnFze</t>
+  </si>
+  <si>
+    <t>hGezFZRd</t>
+  </si>
+  <si>
+    <t>RkFgXtO7</t>
+  </si>
+  <si>
+    <t>mvHu0me4</t>
+  </si>
+  <si>
+    <t>qtMlMMS7</t>
+  </si>
+  <si>
+    <t>3AdWVwe3</t>
+  </si>
+  <si>
+    <t>dEbnw401</t>
+  </si>
+  <si>
+    <t>e0u2wca3</t>
+  </si>
+  <si>
+    <t>i4wjs0nb</t>
+  </si>
+  <si>
+    <t>gkdtHhl9</t>
+  </si>
+  <si>
+    <t>TQdgWHqJ</t>
+  </si>
+  <si>
+    <t>76cKIaKs</t>
+  </si>
+  <si>
+    <t>CQS5NNTU</t>
+  </si>
+  <si>
+    <t>Gevo3yzU</t>
+  </si>
+  <si>
+    <t>jrIqJNSu</t>
+  </si>
+  <si>
+    <t>kHI6lrS8</t>
+  </si>
+  <si>
+    <t>DQkqE0Gu</t>
+  </si>
+  <si>
+    <t>BDWp75VC</t>
+  </si>
+  <si>
+    <t>VwRAJt7g</t>
+  </si>
+  <si>
+    <t>b3AKzeCz</t>
+  </si>
+  <si>
+    <t>W6CsXUpV</t>
+  </si>
+  <si>
+    <t>ZPtoysRS</t>
+  </si>
+  <si>
+    <t>n26iXKJp</t>
+  </si>
+  <si>
+    <t>uNw2AtkS</t>
+  </si>
+  <si>
+    <t>ANc7sgXm</t>
+  </si>
+  <si>
+    <t>lc5gT68L</t>
+  </si>
+  <si>
+    <t>QQqT6sxK</t>
+  </si>
+  <si>
+    <t>GHcPx1b6</t>
+  </si>
+  <si>
+    <t>nFZJUA12</t>
+  </si>
+  <si>
+    <t>4srvXUU9</t>
+  </si>
+  <si>
+    <t>lMyxTa6S</t>
+  </si>
+  <si>
+    <t>TKFZm50Y</t>
+  </si>
+  <si>
+    <t>27Ui0cAY</t>
+  </si>
+  <si>
+    <t>R02csUUR</t>
+  </si>
+  <si>
+    <t>Pcybo9mP</t>
+  </si>
+  <si>
+    <t>rF1k0wTZ</t>
+  </si>
+  <si>
+    <t>DC3FSbSP</t>
+  </si>
+  <si>
+    <t>E1gGyZKV</t>
+  </si>
+  <si>
+    <t>AOT5zvdC</t>
+  </si>
+  <si>
+    <t>Zr1kfnVV</t>
+  </si>
+  <si>
+    <t>rTz1CHMG</t>
+  </si>
+  <si>
+    <t>vyIoIU8Y</t>
+  </si>
+  <si>
+    <t>vM98S4ID</t>
+  </si>
+  <si>
+    <t>wy0LtNJg</t>
+  </si>
+  <si>
+    <t>ssGleH4Z</t>
+  </si>
+  <si>
+    <t>mbRJxua1</t>
+  </si>
+  <si>
+    <t>kY31FZfb</t>
+  </si>
+  <si>
+    <t>1iYX3dIM</t>
+  </si>
+  <si>
+    <t>UU39LDlr</t>
+  </si>
+  <si>
+    <t>HhD9HvBV</t>
+  </si>
+  <si>
+    <t>UbH7e1hF</t>
+  </si>
+  <si>
+    <t>hLSkflsB</t>
+  </si>
+  <si>
+    <t>wBMQHVJ0</t>
+  </si>
+  <si>
+    <t>cP7mFuoP</t>
+  </si>
+  <si>
+    <t>VPIXMRpa</t>
+  </si>
+  <si>
+    <t>d9zZcdpl</t>
+  </si>
+  <si>
+    <t>G8gw9Uu4</t>
+  </si>
+  <si>
+    <t>XFtOYkS0</t>
+  </si>
+  <si>
+    <t>lz2VJx9K</t>
+  </si>
+  <si>
+    <t>1JKc13tU</t>
+  </si>
+  <si>
+    <t>K4hYDYA4</t>
+  </si>
+  <si>
+    <t>0zBX5mkQ</t>
+  </si>
+  <si>
+    <t>vTkjHPyK</t>
+  </si>
+  <si>
+    <t>NUFH6Ij2</t>
+  </si>
+  <si>
+    <t>uqJJUzpH</t>
+  </si>
+  <si>
+    <t>EAm7xJFW</t>
+  </si>
+  <si>
+    <t>KfStiAtM</t>
+  </si>
+  <si>
+    <t>3m3ywEGt</t>
+  </si>
+  <si>
+    <t>9FCTgspb</t>
+  </si>
+  <si>
+    <t>3yQIz3Mu</t>
+  </si>
+  <si>
+    <t>5v92Wdpz</t>
+  </si>
+  <si>
+    <t>zlThZLo5</t>
+  </si>
+  <si>
+    <t>qZnIsiVm</t>
+  </si>
+  <si>
+    <t>0Rsfv4zV</t>
+  </si>
+  <si>
+    <t>OMGVePfc</t>
+  </si>
+  <si>
+    <t>es7fn69x</t>
+  </si>
+  <si>
+    <t>EZGVOT8T</t>
+  </si>
+  <si>
+    <t>C2YqugI4</t>
+  </si>
+  <si>
+    <t>g03ai6hd</t>
+  </si>
+  <si>
+    <t>TG7UJIMP</t>
+  </si>
+  <si>
+    <t>dkCQF8D4</t>
+  </si>
+  <si>
+    <t>b6PPWef7</t>
+  </si>
+  <si>
+    <t>9rCkmBqJ</t>
+  </si>
+  <si>
+    <t>4rIJYh35</t>
+  </si>
+  <si>
+    <t>FJGXIAka</t>
+  </si>
+  <si>
+    <t>O3RC1Dy9</t>
+  </si>
+  <si>
+    <t>k3dDGh6Z</t>
+  </si>
+  <si>
+    <t>yvud88ur</t>
+  </si>
+  <si>
+    <t>Dp9xCM8g</t>
+  </si>
+  <si>
+    <t>YM3pNntR</t>
+  </si>
+  <si>
+    <t>B0cnXEIT</t>
+  </si>
+  <si>
+    <t>GnFZVa7Q</t>
+  </si>
+  <si>
+    <t>TU5RYOTr</t>
+  </si>
+  <si>
+    <t>vrjnQdm7</t>
+  </si>
+  <si>
+    <t>GfIc5PCa</t>
+  </si>
+  <si>
+    <t>UCzpGy9d</t>
+  </si>
+  <si>
+    <t>5AiFft0m</t>
+  </si>
+  <si>
+    <t>wFQv6e7D</t>
+  </si>
+  <si>
+    <t>nJKvL9rb</t>
+  </si>
+  <si>
+    <t>iH2sGjMv</t>
+  </si>
+  <si>
+    <t>E1rIgMsQ</t>
+  </si>
+  <si>
+    <t>U8PQx1bF</t>
+  </si>
+  <si>
+    <t>sMyBiX4h</t>
+  </si>
+  <si>
+    <t>HVlqodmH</t>
+  </si>
+  <si>
+    <t>3L9Y0PYG</t>
+  </si>
+  <si>
+    <t>ccHkPOBO</t>
+  </si>
+  <si>
+    <t>EZQD0a5y</t>
+  </si>
+  <si>
+    <t>xdKGp6t9</t>
+  </si>
+  <si>
+    <t>q7Olh8Tf</t>
+  </si>
+  <si>
+    <t>ipYJyXwA</t>
+  </si>
+  <si>
+    <t>qomTT2gQ</t>
+  </si>
+  <si>
+    <t>hJcLjZOf</t>
+  </si>
+  <si>
+    <t>kzjBzxi9</t>
+  </si>
+  <si>
+    <t>5ggz3E7g</t>
+  </si>
+  <si>
+    <t>A0ixlqJK</t>
+  </si>
+  <si>
+    <t>yufUJRBb</t>
+  </si>
+  <si>
+    <t>jxdyN8FB</t>
+  </si>
+  <si>
+    <t>T9nycdZv</t>
+  </si>
+  <si>
+    <t>Uj6DRsce</t>
+  </si>
+  <si>
+    <t>MDYOMs4u</t>
+  </si>
+  <si>
+    <t>iYo7CYqo</t>
+  </si>
+  <si>
+    <t>eCow3Lqr</t>
+  </si>
+  <si>
+    <t>csb9Gx6m</t>
+  </si>
+  <si>
+    <t>GDgYAvxO</t>
+  </si>
+  <si>
+    <t>ouLYk6pH</t>
+  </si>
+  <si>
+    <t>jTU8YyHc</t>
+  </si>
+  <si>
+    <t>8Ym9HRBT</t>
+  </si>
+  <si>
+    <t>RNtZSY0b</t>
+  </si>
+  <si>
+    <t>LAGNN1Ka</t>
+  </si>
+  <si>
+    <t>f20Bv5y0</t>
+  </si>
+  <si>
+    <t>dRDMU8As</t>
+  </si>
+  <si>
+    <t>FK9X8H0q</t>
+  </si>
+  <si>
+    <t>VmM338PM</t>
+  </si>
+  <si>
+    <t>MOYT64Jm</t>
+  </si>
+  <si>
+    <t>S7QJiIph</t>
+  </si>
+  <si>
+    <t>xyb0a0sq</t>
+  </si>
+  <si>
+    <t>6Q04cnlU</t>
+  </si>
+  <si>
+    <t>ApOnCvb5</t>
+  </si>
+  <si>
+    <t>4AUlIYNH</t>
+  </si>
+  <si>
+    <t>YbxGadZP</t>
+  </si>
+  <si>
+    <t>1FwLqSWf</t>
+  </si>
+  <si>
+    <t>3cMbwtn5</t>
+  </si>
+  <si>
+    <t>gnploBMY</t>
+  </si>
+  <si>
+    <t>rbBQQv1u</t>
+  </si>
+  <si>
+    <t>BvLJa1Mm</t>
+  </si>
+  <si>
+    <t>VJQWPUfw</t>
+  </si>
+  <si>
+    <t>jqFGAa1O</t>
+  </si>
+  <si>
+    <t>JmgLSuTq</t>
+  </si>
+  <si>
+    <t>kPPySCKr</t>
+  </si>
+  <si>
+    <t>P77s9e7w</t>
+  </si>
+  <si>
+    <t>00zdgCYU</t>
+  </si>
+  <si>
+    <t>VrEmFtq3</t>
+  </si>
+  <si>
+    <t>WKvm4Xh9</t>
+  </si>
+  <si>
+    <t>jYFVW6nb</t>
+  </si>
+  <si>
+    <t>ugI8gaDj</t>
+  </si>
+  <si>
+    <t>pqq0vpFn</t>
+  </si>
+  <si>
+    <t>TJG9oRLB</t>
+  </si>
+  <si>
+    <t>DZHbdoVh</t>
+  </si>
+  <si>
+    <t>36GAf2Kp</t>
+  </si>
+  <si>
+    <t>1khghaeb</t>
+  </si>
+  <si>
+    <t>KtqSPSMa</t>
+  </si>
+  <si>
+    <t>NAdZnrY5</t>
+  </si>
+  <si>
+    <t>PmAPl94L</t>
+  </si>
+  <si>
+    <t>Opv2ijL5</t>
+  </si>
+  <si>
+    <t>QyhGROub</t>
+  </si>
+  <si>
+    <t>suBKRG9C</t>
+  </si>
+  <si>
+    <t>wbvrABW7</t>
+  </si>
+  <si>
+    <t>MYrm45mV</t>
+  </si>
+  <si>
+    <t>0PNn27NN</t>
+  </si>
+  <si>
+    <t>awYoUKFy</t>
+  </si>
+  <si>
+    <t>QDl3nuy5</t>
+  </si>
+  <si>
+    <t>eD0aSRKv</t>
+  </si>
+  <si>
+    <t>pEBXKGXW</t>
+  </si>
+  <si>
+    <t>pgrzCOmA</t>
+  </si>
+  <si>
+    <t>FymfGgR0</t>
+  </si>
+  <si>
+    <t>QqEuBujX</t>
+  </si>
+  <si>
+    <t>PpBLjNQB</t>
+  </si>
+  <si>
+    <t>btYHoBmh</t>
+  </si>
+  <si>
+    <t>fyztrjw4</t>
+  </si>
+  <si>
+    <t>j6yxxzSK</t>
+  </si>
+  <si>
+    <t>ACT3nMtR</t>
+  </si>
+  <si>
+    <t>5Fptvoua</t>
+  </si>
+  <si>
+    <t>w9SUycmC</t>
+  </si>
+  <si>
+    <t>oQV2VTCI</t>
+  </si>
+  <si>
+    <t>WGljjHqX</t>
+  </si>
+  <si>
+    <t>Tjkq1Wxr</t>
+  </si>
+  <si>
+    <t>mE4H6ttu</t>
+  </si>
+  <si>
+    <t>A6roWl7S</t>
+  </si>
+  <si>
+    <t>mczb7CFn</t>
+  </si>
+  <si>
+    <t>uXirbDKo</t>
+  </si>
+  <si>
+    <t>8blUthNM</t>
+  </si>
+  <si>
+    <t>LKt2XIgQ</t>
+  </si>
+  <si>
+    <t>kmRJDpCb</t>
+  </si>
+  <si>
+    <t>WX1rpc9o</t>
+  </si>
+  <si>
+    <t>S9jg9Fzv</t>
+  </si>
+  <si>
+    <t>DYJ6FgQ8</t>
+  </si>
+  <si>
+    <t>jQBijQni</t>
+  </si>
+  <si>
+    <t>zOU2Aknv</t>
+  </si>
+  <si>
+    <t>XnMid6LL</t>
+  </si>
+  <si>
+    <t>3QmwMKIs</t>
+  </si>
+  <si>
+    <t>TQjxki0T</t>
+  </si>
+  <si>
+    <t>cPYQ5HTw</t>
+  </si>
+  <si>
+    <t>wHmp7FJd</t>
+  </si>
+  <si>
+    <t>AiwEs9by</t>
+  </si>
+  <si>
+    <t>ocYpR1DM</t>
+  </si>
+  <si>
+    <t>dA1MyT0g</t>
+  </si>
+  <si>
+    <t>BJCg4O9z</t>
+  </si>
+  <si>
+    <t>8CEVTOZu</t>
+  </si>
+  <si>
+    <t>LSJzniqR</t>
+  </si>
+  <si>
+    <t>f5VHUSzB</t>
+  </si>
+  <si>
+    <t>mkochtEq</t>
+  </si>
+  <si>
+    <t>a1TL3KMN</t>
+  </si>
+  <si>
+    <t>SxJMTDw2</t>
+  </si>
+  <si>
+    <t>H56WM4hk</t>
+  </si>
+  <si>
+    <t>lM5cRcyT</t>
+  </si>
+  <si>
+    <t>HNAjs4fa</t>
+  </si>
+  <si>
+    <t>zp5huOoj</t>
+  </si>
+  <si>
+    <t>7cmiAuTQ</t>
+  </si>
+  <si>
+    <t>R1spmeuu</t>
+  </si>
+  <si>
+    <t>6szuuY1E</t>
+  </si>
+  <si>
+    <t>Qkgi55wq</t>
+  </si>
+  <si>
+    <t>I9w4zSUZ</t>
+  </si>
+  <si>
+    <t>M8Bhv2rz</t>
+  </si>
+  <si>
+    <t>Qaor9GYx</t>
+  </si>
+  <si>
+    <t>pNQX3ur1</t>
+  </si>
+  <si>
+    <t>RH3xW95g</t>
+  </si>
+  <si>
+    <t>f8QArLWi</t>
+  </si>
+  <si>
+    <t>t690FbII</t>
+  </si>
+  <si>
+    <t>X6SXOQhv</t>
+  </si>
+  <si>
+    <t>ZCTdKb20</t>
+  </si>
+  <si>
+    <t>5luTYqZG</t>
+  </si>
+  <si>
+    <t>gpV2rENP</t>
+  </si>
+  <si>
+    <t>TaEkIW11</t>
+  </si>
+  <si>
+    <t>hslquTY7</t>
+  </si>
+  <si>
+    <t>nYj2kbJ6</t>
+  </si>
+  <si>
+    <t>gwvJlJVg</t>
+  </si>
+  <si>
+    <t>giJtvMx4</t>
+  </si>
+  <si>
+    <t>bmNzl07k</t>
+  </si>
+  <si>
+    <t>0auS1BsO</t>
+  </si>
+  <si>
+    <t>5iPwpj1F</t>
+  </si>
+  <si>
+    <t>AhI47myh</t>
+  </si>
+  <si>
+    <t>pAJZshZP</t>
+  </si>
+  <si>
+    <t>wCkB5qV2</t>
+  </si>
+  <si>
+    <t>Ln7HGjTh</t>
+  </si>
+  <si>
+    <t>RfZEmnfe</t>
+  </si>
+  <si>
+    <t>fssCdhsT</t>
+  </si>
+  <si>
+    <t>c2U4yXIX</t>
+  </si>
+  <si>
+    <t>qxnFAYMY</t>
+  </si>
+  <si>
+    <t>eDE0rXTC</t>
+  </si>
+  <si>
+    <t>mnA9f5O9</t>
+  </si>
+  <si>
+    <t>sqoRVAgn</t>
+  </si>
+  <si>
+    <t>i2jYCaqq</t>
+  </si>
+  <si>
+    <t>GYAaamQ2</t>
+  </si>
+  <si>
+    <t>sg4j4vLm</t>
+  </si>
+  <si>
+    <t>phHwKHAZ</t>
+  </si>
+  <si>
+    <t>GanuD7Re</t>
+  </si>
+  <si>
+    <t>Qbo4NOgp</t>
+  </si>
+  <si>
+    <t>7kYfYRU0</t>
+  </si>
+  <si>
+    <t>W0gHU6ew</t>
+  </si>
+  <si>
+    <t>2ewnLo3z</t>
+  </si>
+  <si>
+    <t>GurmROOI</t>
+  </si>
+  <si>
+    <t>FfStOhmu</t>
+  </si>
+  <si>
+    <t>T72YavNx</t>
+  </si>
+  <si>
+    <t>W8rvvcfw</t>
+  </si>
+  <si>
+    <t>KvRbXD5H</t>
+  </si>
+  <si>
+    <t>OQH2pOwX</t>
+  </si>
+  <si>
+    <t>MWpLIFol</t>
+  </si>
+  <si>
+    <t>mLRrl37L</t>
+  </si>
+  <si>
+    <t>frB9Avdz</t>
+  </si>
+  <si>
+    <t>r5iX1vAT</t>
+  </si>
+  <si>
+    <t>JNwRMABN</t>
+  </si>
+  <si>
+    <t>5KpUR7hF</t>
+  </si>
+  <si>
+    <t>bjRgoOFV</t>
+  </si>
+  <si>
+    <t>Y6uzGaXG</t>
+  </si>
+  <si>
+    <t>0GYSabMZ</t>
+  </si>
+  <si>
+    <t>K6Fxo5jM</t>
+  </si>
+  <si>
+    <t>BweEjM3d</t>
+  </si>
+  <si>
+    <t>WTIHdJj2</t>
+  </si>
+  <si>
+    <t>WdN1p4Is</t>
+  </si>
+  <si>
+    <t>nCNS1B8J</t>
+  </si>
+  <si>
+    <t>e5w0QdhG</t>
+  </si>
+  <si>
+    <t>exixdUiH</t>
+  </si>
+  <si>
+    <t>rbcgfv7V</t>
+  </si>
+  <si>
+    <t>L8kGdx1N</t>
+  </si>
+  <si>
+    <t>waVpSqkE</t>
+  </si>
+  <si>
+    <t>FSuYHhoE</t>
+  </si>
+  <si>
+    <t>EmXsGZBx</t>
+  </si>
+  <si>
+    <t>qLIZBZg3</t>
+  </si>
+  <si>
+    <t>7D0BL6qC</t>
+  </si>
+  <si>
+    <t>yVOT3ZhI</t>
+  </si>
+  <si>
+    <t>7TX1ZAKn</t>
+  </si>
+  <si>
+    <t>033MmPad</t>
+  </si>
+  <si>
+    <t>4wquPOBA</t>
+  </si>
+  <si>
+    <t>qFpmSJbf</t>
+  </si>
+  <si>
+    <t>CiYGNgTM</t>
+  </si>
+  <si>
+    <t>hEDk6TWB</t>
+  </si>
+  <si>
+    <t>Cg1gIBPG</t>
+  </si>
+  <si>
+    <t>onWhoEwT</t>
+  </si>
+  <si>
+    <t>4JNi0wP2</t>
+  </si>
+  <si>
+    <t>eDqvv38r</t>
+  </si>
+  <si>
+    <t>ZYlrrGqD</t>
+  </si>
+  <si>
+    <t>vSFLXtgo</t>
+  </si>
+  <si>
+    <t>lMd9xoCh</t>
+  </si>
+  <si>
+    <t>3Od0V2sM</t>
+  </si>
+  <si>
+    <t>LGHfLsNV</t>
+  </si>
+  <si>
+    <t>TAubDKCz</t>
+  </si>
+  <si>
+    <t>tbt4svWW</t>
+  </si>
+  <si>
+    <t>cjBK1IVR</t>
+  </si>
+  <si>
+    <t>yPXOTBlN</t>
+  </si>
+  <si>
+    <t>Yzu7Zyrv</t>
+  </si>
+  <si>
+    <t>4MWTM7vf</t>
+  </si>
+  <si>
+    <t>SDpHwLyu</t>
+  </si>
+  <si>
+    <t>culjkfg2</t>
+  </si>
+  <si>
+    <t>njMRrkSy</t>
+  </si>
+  <si>
+    <t>wWg0sdI7</t>
+  </si>
+  <si>
+    <t>278teCN0</t>
+  </si>
+  <si>
+    <t>F1wX8dcw</t>
+  </si>
+  <si>
+    <t>BOIJg0PA</t>
+  </si>
+  <si>
+    <t>OnbDn7Cr</t>
+  </si>
+  <si>
+    <t>bUfiSKWd</t>
+  </si>
+  <si>
+    <t>AzTHEj5F</t>
+  </si>
+  <si>
+    <t>78Vh9xJE</t>
+  </si>
+  <si>
+    <t>drSwhQvC</t>
+  </si>
+  <si>
+    <t>TQbsh5z7</t>
+  </si>
+  <si>
+    <t>BSqbcurJ</t>
+  </si>
+  <si>
+    <t>gLWxHH9Q</t>
+  </si>
+  <si>
+    <t>gjff80TA</t>
+  </si>
+  <si>
+    <t>GWDtRmzB</t>
+  </si>
+  <si>
+    <t>1vXwSGSS</t>
+  </si>
+  <si>
+    <t>4WwFIsWJ</t>
+  </si>
+  <si>
+    <t>RusxTDRY</t>
+  </si>
+  <si>
+    <t>tce9STzY</t>
+  </si>
+  <si>
+    <t>OMQgvxya</t>
+  </si>
+  <si>
+    <t>CcO9Vx6U</t>
+  </si>
+  <si>
+    <t>TzQXxGVn</t>
+  </si>
+  <si>
+    <t>8IJphjfj</t>
+  </si>
+  <si>
+    <t>7hIoaMEW</t>
+  </si>
+  <si>
+    <t>PgRJgQFp</t>
+  </si>
+  <si>
+    <t>NTmRrQgG</t>
+  </si>
+  <si>
+    <t>Y7vuIZYy</t>
+  </si>
+  <si>
+    <t>PIJLbMDC</t>
+  </si>
+  <si>
+    <t>tVD2lYoW</t>
+  </si>
+  <si>
+    <t>baEn7qb9</t>
+  </si>
+  <si>
+    <t>iYZr8rYr</t>
+  </si>
+  <si>
+    <t>9JxFNeij</t>
+  </si>
+  <si>
+    <t>pFO2TPCg</t>
+  </si>
+  <si>
+    <t>bEhRWPpF</t>
+  </si>
+  <si>
+    <t>SPeXZdta</t>
+  </si>
+  <si>
+    <t>cZ6OqByM</t>
+  </si>
+  <si>
+    <t>5lMgL8ks</t>
+  </si>
+  <si>
+    <t>cmAqV16a</t>
+  </si>
+  <si>
+    <t>e8ulI9s6</t>
+  </si>
+  <si>
+    <t>wdJLFUuu</t>
+  </si>
+  <si>
+    <t>nA5OQzAR</t>
+  </si>
+  <si>
+    <t>IpynYWuv</t>
+  </si>
+  <si>
+    <t>cd4ah7QZ</t>
+  </si>
+  <si>
+    <t>tfzU5fW3</t>
+  </si>
+  <si>
+    <t>kgSVTLqm</t>
+  </si>
+  <si>
+    <t>ENlFeFRr</t>
+  </si>
+  <si>
+    <t>3CWSHPBs</t>
+  </si>
+  <si>
+    <t>ibROB4Qe</t>
+  </si>
+  <si>
+    <t>ucXOxZWX</t>
+  </si>
+  <si>
+    <t>8IwAuAvH</t>
+  </si>
+  <si>
+    <t>PeK64CYH</t>
+  </si>
+  <si>
+    <t>q5jdwbT6</t>
+  </si>
+  <si>
+    <t>iUuWyCkj</t>
+  </si>
+  <si>
+    <t>049Wcn3E</t>
+  </si>
+  <si>
+    <t>0NpgK8tz</t>
+  </si>
+  <si>
+    <t>kQkOdYW8</t>
+  </si>
+  <si>
+    <t>2fQqIlL3</t>
+  </si>
+  <si>
+    <t>TpI7k5fG</t>
+  </si>
+  <si>
+    <t>dVHjUcr9</t>
+  </si>
+  <si>
+    <t>qcaUNuQx</t>
+  </si>
+  <si>
+    <t>at76weSO</t>
+  </si>
+  <si>
+    <t>jNdkJdt0</t>
+  </si>
+  <si>
+    <t>F0Pau4co</t>
+  </si>
+  <si>
+    <t>aygPcOrm</t>
+  </si>
+  <si>
+    <t>JJ9IG9qd</t>
+  </si>
+  <si>
+    <t>GLLx6b5o</t>
+  </si>
+  <si>
+    <t>Uju8kFuB</t>
+  </si>
+  <si>
+    <t>v6lf30nD</t>
+  </si>
+  <si>
+    <t>OJGotLJI</t>
+  </si>
+  <si>
+    <t>EEos3en8</t>
+  </si>
+  <si>
+    <t>ypGxDuzG</t>
+  </si>
+  <si>
+    <t>3AF9c7OT</t>
+  </si>
+  <si>
+    <t>8IfnhTqg</t>
+  </si>
+  <si>
+    <t>IpXrgpn2</t>
+  </si>
+  <si>
+    <t>PRZVQaUR</t>
+  </si>
+  <si>
+    <t>wuseaepn</t>
+  </si>
+  <si>
+    <t>G4qHOmkV</t>
+  </si>
+  <si>
+    <t>0m3qlnOq</t>
+  </si>
+  <si>
+    <t>MfTuSNLG</t>
+  </si>
+  <si>
+    <t>lZ4MrqqE</t>
+  </si>
+  <si>
+    <t>tZJ8vUID</t>
+  </si>
+  <si>
+    <t>cG3j0GUw</t>
+  </si>
+  <si>
+    <t>7Ixfrbd3</t>
+  </si>
+  <si>
+    <t>gXN6d2b4</t>
+  </si>
+  <si>
+    <t>Yq1WibvS</t>
+  </si>
+  <si>
+    <t>DbC9jo9f</t>
+  </si>
+  <si>
+    <t>4IXBMJXA</t>
+  </si>
+  <si>
+    <t>U40LQA7V</t>
+  </si>
+  <si>
+    <t>tYfNlR67</t>
+  </si>
+  <si>
+    <t>KSfIj0aN</t>
+  </si>
+  <si>
+    <t>lyeivDhC</t>
+  </si>
+  <si>
+    <t>uW5cKFjA</t>
+  </si>
+  <si>
+    <t>TAVJJ1qf</t>
+  </si>
+  <si>
+    <t>onWhRuR5</t>
+  </si>
+  <si>
+    <t>CJlyA1pW</t>
+  </si>
+  <si>
+    <t>fYqAizXY</t>
+  </si>
+  <si>
+    <t>6G0FnR4e</t>
+  </si>
+  <si>
+    <t>mgXK8CsS</t>
+  </si>
+  <si>
+    <t>TnHLY4BZ</t>
+  </si>
+  <si>
+    <t>v9vzWXDF</t>
+  </si>
+  <si>
+    <t>UZZJpLA5</t>
+  </si>
+  <si>
+    <t>PuYNCw6y</t>
+  </si>
+  <si>
+    <t>oNT7LjJe</t>
+  </si>
+  <si>
+    <t>otcy0h5U</t>
+  </si>
+  <si>
+    <t>PHH1WAqc</t>
+  </si>
+  <si>
+    <t>Ucm31CCi</t>
+  </si>
+  <si>
+    <t>r3vhc5o2</t>
+  </si>
+  <si>
+    <t>T6yKUu1O</t>
+  </si>
+  <si>
+    <t>BpbPfi5r</t>
+  </si>
+  <si>
+    <t>xDwLEWwb</t>
+  </si>
+  <si>
+    <t>Goh9BXYP</t>
+  </si>
+  <si>
+    <t>luYKBHlX</t>
+  </si>
+  <si>
+    <t>OoIdYxJV</t>
+  </si>
+  <si>
+    <t>QeuwCMmt</t>
+  </si>
+  <si>
+    <t>C1YjdqCs</t>
+  </si>
+  <si>
+    <t>i3FMyj3F</t>
+  </si>
+  <si>
+    <t>JTRkaQFx</t>
+  </si>
+  <si>
+    <t>SWVJXMF5</t>
+  </si>
+  <si>
+    <t>8NmUuMUS</t>
+  </si>
+  <si>
+    <t>hlhA78dA</t>
+  </si>
+  <si>
+    <t>3jxddczV</t>
+  </si>
+  <si>
+    <t>x9TP7pFG</t>
+  </si>
+  <si>
+    <t>pILytJYI</t>
+  </si>
+  <si>
+    <t>PaCL6fy5</t>
+  </si>
+  <si>
+    <t>UOKEuIPO</t>
+  </si>
+  <si>
+    <t>PzisacLG</t>
+  </si>
+  <si>
+    <t>alCcw1D4</t>
+  </si>
+  <si>
+    <t>ikS7NF9H</t>
+  </si>
+  <si>
+    <t>oK7KkXZD</t>
+  </si>
+  <si>
+    <t>3IQ7yXO1</t>
+  </si>
+  <si>
+    <t>Re28DQ4h</t>
+  </si>
+  <si>
+    <t>bLCUCu5G</t>
+  </si>
+  <si>
+    <t>aokXM5dr</t>
+  </si>
+  <si>
+    <t>D7FhLJfy</t>
+  </si>
+  <si>
+    <t>Bm0PvFxc</t>
+  </si>
+  <si>
+    <t>brGOgQoS</t>
+  </si>
+  <si>
+    <t>RgR3Ucft</t>
+  </si>
+  <si>
+    <t>wMFVShjV</t>
+  </si>
+  <si>
+    <t>4PIu2wwV</t>
+  </si>
+  <si>
+    <t>JYD3g87D</t>
+  </si>
+  <si>
+    <t>ZxKL3Aeq</t>
+  </si>
+  <si>
+    <t>0IZ0JQvI</t>
+  </si>
+  <si>
+    <t>oVTksAyc</t>
+  </si>
+  <si>
+    <t>mnHKYkc8</t>
+  </si>
+  <si>
+    <t>gGwwUzhg</t>
+  </si>
+  <si>
+    <t>KsKH5eVA</t>
+  </si>
+  <si>
+    <t>Xb9r3np6</t>
+  </si>
+  <si>
+    <t>gqIdWZM3</t>
+  </si>
+  <si>
+    <t>i39s7lGL</t>
+  </si>
+  <si>
+    <t>BeIvH7yx</t>
+  </si>
+  <si>
+    <t>aVf0B3kW</t>
+  </si>
+  <si>
+    <t>j6kJELX8</t>
+  </si>
+  <si>
+    <t>vaoDEHNH</t>
+  </si>
+  <si>
+    <t>jDkuxvKG</t>
+  </si>
+  <si>
+    <t>kKM8i4sV</t>
+  </si>
+  <si>
+    <t>rOFgJJCZ</t>
+  </si>
+  <si>
+    <t>uyx6fg89</t>
+  </si>
+  <si>
+    <t>UVj9LzMA</t>
+  </si>
+  <si>
+    <t>WVU4MVxI</t>
+  </si>
+  <si>
+    <t>DuAhAsCE</t>
+  </si>
+  <si>
+    <t>M1Axy1Aj</t>
+  </si>
+  <si>
+    <t>rOLaxmzI</t>
+  </si>
+  <si>
+    <t>gAecnGyl</t>
+  </si>
+  <si>
+    <t>5ExOUP6R</t>
+  </si>
+  <si>
+    <t>5D20YDj5</t>
+  </si>
+  <si>
+    <t>Vivm2YI5</t>
+  </si>
+  <si>
+    <t>kTihtkOJ</t>
+  </si>
+  <si>
+    <t>z4psz9R1</t>
+  </si>
+  <si>
+    <t>bJl8qWaF</t>
+  </si>
+  <si>
+    <t>MARMmslB</t>
+  </si>
+  <si>
+    <t>hnvsAlyd</t>
+  </si>
+  <si>
+    <t>GEK7reqi</t>
+  </si>
+  <si>
+    <t>Q7vXnoCm</t>
+  </si>
+  <si>
+    <t>GTgzANTx</t>
+  </si>
+  <si>
+    <t>xkUjb3tQ</t>
+  </si>
+  <si>
+    <t>7Tj799fR</t>
+  </si>
+  <si>
+    <t>fw0SICXg</t>
+  </si>
+  <si>
+    <t>GSjZTU4H</t>
+  </si>
+  <si>
+    <t>HpoK95KC</t>
+  </si>
+  <si>
+    <t>eR7RG8sN</t>
+  </si>
+  <si>
+    <t>JHKXpmIT</t>
+  </si>
+  <si>
+    <t>eBROdeXy</t>
+  </si>
+  <si>
+    <t>c9V5xocX</t>
+  </si>
+  <si>
+    <t>q3OQip7u</t>
+  </si>
+  <si>
+    <t>tT8vAHaP</t>
+  </si>
+  <si>
+    <t>a9r1Cr4F</t>
+  </si>
+  <si>
+    <t>lIHbyJe0</t>
+  </si>
+  <si>
+    <t>R2Idc8bC</t>
+  </si>
+  <si>
+    <t>rk46s1Se</t>
+  </si>
+  <si>
+    <t>5kSZIcQN</t>
+  </si>
+  <si>
+    <t>gICrBapm</t>
+  </si>
+  <si>
+    <t>WIhg9LcK</t>
+  </si>
+  <si>
+    <t>wSiVYu7i</t>
+  </si>
+  <si>
+    <t>REESVBmh</t>
+  </si>
+  <si>
+    <t>g3NC013c</t>
+  </si>
+  <si>
+    <t>0vqpAEDl</t>
+  </si>
+  <si>
+    <t>NBhMI7ha</t>
+  </si>
+  <si>
+    <t>qxuGP4L4</t>
+  </si>
+  <si>
+    <t>SuNyJDtM</t>
+  </si>
+  <si>
+    <t>kIpO73xa</t>
+  </si>
+  <si>
+    <t>M7IRocSo</t>
+  </si>
+  <si>
+    <t>Oa4jGZUb</t>
+  </si>
+  <si>
+    <t>HkkciuqY</t>
+  </si>
+  <si>
+    <t>EA4kaEw9</t>
+  </si>
+  <si>
+    <t>oEljI61T</t>
+  </si>
+  <si>
+    <t>BFPJpBUC</t>
+  </si>
+  <si>
+    <t>XncR0KC3</t>
+  </si>
+  <si>
+    <t>pbZ3NCem</t>
+  </si>
+  <si>
+    <t>x7Dg62dF</t>
+  </si>
+  <si>
+    <t>a5kOO5Jj</t>
+  </si>
+  <si>
+    <t>Gq3pgCxr</t>
+  </si>
+  <si>
+    <t>xRskC0RZ</t>
+  </si>
+  <si>
+    <t>5ycEJyCP</t>
+  </si>
+  <si>
+    <t>oi7a8mnC</t>
+  </si>
+  <si>
+    <t>65LnkVM2</t>
+  </si>
+  <si>
+    <t>2yjQuYYG</t>
+  </si>
+  <si>
+    <t>fYJAoc6I</t>
+  </si>
+  <si>
+    <t>53FbunnI</t>
+  </si>
+  <si>
+    <t>K2TBnyCO</t>
+  </si>
+  <si>
+    <t>zq1fjnhe</t>
+  </si>
+  <si>
+    <t>e4GymZYH</t>
+  </si>
+  <si>
+    <t>O7wqiKsO</t>
+  </si>
+  <si>
+    <t>mJlyELeF</t>
+  </si>
+  <si>
+    <t>ExEOkqOZ</t>
+  </si>
+  <si>
+    <t>KOJ2rBxk</t>
+  </si>
+  <si>
+    <t>i88mz3RS</t>
+  </si>
+  <si>
+    <t>ZvzaiZ5Y</t>
+  </si>
+  <si>
+    <t>giTZl8P2</t>
+  </si>
+  <si>
+    <t>tvXwyZHu</t>
+  </si>
+  <si>
+    <t>bSwSDNxo</t>
+  </si>
+  <si>
+    <t>HH4HeusC</t>
+  </si>
+  <si>
+    <t>PCMDnBLV</t>
+  </si>
+  <si>
+    <t>PuZEZiyV</t>
+  </si>
+  <si>
+    <t>KGRlxAQZ</t>
+  </si>
+  <si>
+    <t>fmeFi9qn</t>
+  </si>
+  <si>
+    <t>jvnlSBDm</t>
+  </si>
+  <si>
+    <t>ZEaqXVRE</t>
+  </si>
+  <si>
+    <t>x8Mzk9hf</t>
+  </si>
+  <si>
+    <t>07yBw6xQ</t>
+  </si>
+  <si>
+    <t>Hbl1xMTL</t>
+  </si>
+  <si>
+    <t>FPqy6scP</t>
+  </si>
+  <si>
+    <t>HHvl1RRE</t>
+  </si>
+  <si>
+    <t>J4y6mBNH</t>
+  </si>
+  <si>
+    <t>Wsy2E9K7</t>
+  </si>
+  <si>
+    <t>eqD1U9Vf</t>
+  </si>
+  <si>
+    <t>5jiLyV9d</t>
+  </si>
+  <si>
+    <t>yLBWzId6</t>
+  </si>
+  <si>
+    <t>fx4Ikp0H</t>
+  </si>
+  <si>
+    <t>MbOnqRzy</t>
+  </si>
+  <si>
+    <t>bJuU96ps</t>
+  </si>
+  <si>
+    <t>9bJtRCTG</t>
+  </si>
+  <si>
+    <t>agMtFutt</t>
+  </si>
+  <si>
+    <t>hxmhVJMn</t>
+  </si>
+  <si>
+    <t>9qlLsVHC</t>
+  </si>
+  <si>
+    <t>fzpSHRad</t>
+  </si>
+  <si>
+    <t>UsYz2tUp</t>
+  </si>
+  <si>
+    <t>jbCyVyw3</t>
+  </si>
+  <si>
+    <t>EIrOuhYL</t>
+  </si>
+  <si>
+    <t>lggzQHTk</t>
+  </si>
+  <si>
+    <t>Z4S1vvcJ</t>
+  </si>
+  <si>
+    <t>J9bRlPwx</t>
+  </si>
+  <si>
+    <t>p9pPLNy2</t>
+  </si>
+  <si>
+    <t>1OWyVzQ2</t>
+  </si>
+  <si>
+    <t>2mb0ydXB</t>
+  </si>
+  <si>
+    <t>3785Fsrz</t>
+  </si>
+  <si>
+    <t>iivZBIcw</t>
+  </si>
+  <si>
+    <t>0hloi1fr</t>
+  </si>
+  <si>
+    <t>jZvLlqQ1</t>
+  </si>
+  <si>
+    <t>4NVJoYEC</t>
+  </si>
+  <si>
+    <t>xalmla4H</t>
+  </si>
+  <si>
+    <t>iFBvzbkt</t>
+  </si>
+  <si>
+    <t>YjXylFVe</t>
+  </si>
+  <si>
+    <t>HVTzLviJ</t>
+  </si>
+  <si>
+    <t>KBef9aac</t>
+  </si>
+  <si>
+    <t>gKxKB3H8</t>
+  </si>
+  <si>
+    <t>j324gCxS</t>
+  </si>
+  <si>
+    <t>jxHf9lRO</t>
+  </si>
+  <si>
+    <t>S4ifPhtS</t>
+  </si>
+  <si>
+    <t>Pln8tJ0P</t>
+  </si>
+  <si>
+    <t>JsBlLczG</t>
+  </si>
+  <si>
+    <t>sSyfmzx6</t>
+  </si>
+  <si>
+    <t>Q7Ha7Lbh</t>
+  </si>
+  <si>
+    <t>LANMKMOb</t>
+  </si>
+  <si>
+    <t>orbNtFWw</t>
+  </si>
+  <si>
+    <t>sSSBw6mQ</t>
+  </si>
+  <si>
+    <t>6hyeHrDE</t>
+  </si>
+  <si>
+    <t>b8lK586f</t>
+  </si>
+  <si>
+    <t>Srjcyxx1</t>
+  </si>
+  <si>
+    <t>6MW2mEq3</t>
+  </si>
+  <si>
+    <t>r8FjPAoc</t>
+  </si>
+  <si>
+    <t>r1W78E8t</t>
+  </si>
+  <si>
+    <t>qgAdFmLj</t>
+  </si>
+  <si>
+    <t>e308qDfR</t>
+  </si>
+  <si>
+    <t>f9WFzBBE</t>
+  </si>
+  <si>
+    <t>3ca45F5u</t>
+  </si>
+  <si>
+    <t>l3vMjsCL</t>
+  </si>
+  <si>
+    <t>qrxvyVaw</t>
+  </si>
+  <si>
+    <t>PzzzWcYK</t>
+  </si>
+  <si>
+    <t>yde77tNK</t>
+  </si>
+  <si>
+    <t>XdRvgR2L</t>
+  </si>
+  <si>
+    <t>2vFtCxq5</t>
+  </si>
+  <si>
+    <t>xwazVMIR</t>
+  </si>
+  <si>
+    <t>vXakfUiY</t>
+  </si>
+  <si>
+    <t>2f2NryJz</t>
+  </si>
+  <si>
+    <t>jsg7pGvC</t>
+  </si>
+  <si>
+    <t>Y289uCQ6</t>
+  </si>
+  <si>
+    <t>VxdCR3Ov</t>
+  </si>
+  <si>
+    <t>WEafUc5q</t>
+  </si>
+  <si>
+    <t>7oE2iGRU</t>
+  </si>
+  <si>
+    <t>Bw0hyJXK</t>
+  </si>
+  <si>
+    <t>uTNX1ylU</t>
+  </si>
+  <si>
+    <t>jS2POpaN</t>
+  </si>
+  <si>
+    <t>RM5Bi5bP</t>
+  </si>
+  <si>
+    <t>54jpBc18</t>
+  </si>
+  <si>
+    <t>G1QKkWrX</t>
+  </si>
+  <si>
+    <t>gW1JuSxM</t>
+  </si>
+  <si>
+    <t>tVHsgAO8</t>
+  </si>
+  <si>
+    <t>PEcwvsSL</t>
+  </si>
+  <si>
+    <t>lbTX2Yrw</t>
+  </si>
+  <si>
+    <t>ghkmgDt9</t>
+  </si>
+  <si>
+    <t>MuJbi6uH</t>
+  </si>
+  <si>
+    <t>y1b7tCw2</t>
+  </si>
+  <si>
+    <t>iaYc3Bqy</t>
+  </si>
+  <si>
+    <t>N013oKg8</t>
+  </si>
+  <si>
+    <t>TKzwHEZj</t>
+  </si>
+  <si>
+    <t>uYKB7Rhw</t>
+  </si>
+  <si>
+    <t>mZUWh9FY</t>
+  </si>
+  <si>
+    <t>8l8u0NTx</t>
+  </si>
+  <si>
+    <t>6niQdoHD</t>
+  </si>
+  <si>
+    <t>4KMOsj0E</t>
+  </si>
+  <si>
+    <t>MEuGaDtD</t>
+  </si>
+  <si>
+    <t>w58t4E3D</t>
+  </si>
+  <si>
+    <t>SqRd2e0p</t>
+  </si>
+  <si>
+    <t>QQgESaww</t>
+  </si>
+  <si>
+    <t>eoylb3BC</t>
+  </si>
+  <si>
+    <t>VcveU1mp</t>
+  </si>
+  <si>
+    <t>nb29rT2J</t>
+  </si>
+  <si>
+    <t>JvgMnnKJ</t>
+  </si>
+  <si>
+    <t>IDmHuIW4</t>
+  </si>
+  <si>
+    <t>al1X36Ts</t>
+  </si>
+  <si>
+    <t>dwaBXyhr</t>
+  </si>
+  <si>
+    <t>q0TQVeI8</t>
+  </si>
+  <si>
+    <t>Nols6EYy</t>
+  </si>
+  <si>
+    <t>UOpKLAua</t>
+  </si>
+  <si>
+    <t>oRV4XeZQ</t>
+  </si>
+  <si>
+    <t>crkHZ3Ca</t>
+  </si>
+  <si>
+    <t>YuRmgwE7</t>
+  </si>
+  <si>
+    <t>swiNAwuI</t>
+  </si>
+  <si>
+    <t>gNGaDlfg</t>
+  </si>
+  <si>
+    <t>Z7fYnhRY</t>
+  </si>
+  <si>
+    <t>yMpSCKS8</t>
+  </si>
+  <si>
+    <t>QjF8HrZ1</t>
+  </si>
+  <si>
+    <t>oTVP7oAB</t>
+  </si>
+  <si>
+    <t>E8tfDulJ</t>
+  </si>
+  <si>
+    <t>0Yy2EDre</t>
+  </si>
+  <si>
+    <t>nOkvZUFC</t>
+  </si>
+  <si>
+    <t>x0eK405u</t>
+  </si>
+  <si>
+    <t>kOXSohUz</t>
+  </si>
+  <si>
+    <t>WdUnGzmk</t>
+  </si>
+  <si>
+    <t>qa7A1gZ3</t>
+  </si>
+  <si>
+    <t>OhV9P5wz</t>
+  </si>
+  <si>
+    <t>iLz11Snm</t>
+  </si>
+  <si>
+    <t>iEdw36Ew</t>
+  </si>
+  <si>
+    <t>f8FquM4U</t>
+  </si>
+  <si>
+    <t>2CrQ5Anl</t>
+  </si>
+  <si>
+    <t>SVC4CnTt</t>
+  </si>
+  <si>
+    <t>7ZYridx6</t>
+  </si>
+  <si>
+    <t>OWTTidE6</t>
+  </si>
+  <si>
+    <t>7J6z29DF</t>
+  </si>
+  <si>
+    <t>R211Yzqw</t>
+  </si>
+  <si>
+    <t>CSa9grJx</t>
+  </si>
+  <si>
+    <t>1aSLfH3A</t>
+  </si>
+  <si>
+    <t>J3lOWFN5</t>
+  </si>
+  <si>
+    <t>qdmVJj86</t>
+  </si>
+  <si>
+    <t>MoRxbqQ4</t>
+  </si>
+  <si>
+    <t>5yOpYDKV</t>
+  </si>
+  <si>
+    <t>zsMEyvAQ</t>
+  </si>
+  <si>
+    <t>K4oEX9Co</t>
+  </si>
+  <si>
+    <t>dh9sE9G1</t>
+  </si>
+  <si>
+    <t>sk5kNfcg</t>
+  </si>
+  <si>
+    <t>OU4RvVBw</t>
+  </si>
+  <si>
+    <t>EotjIfBZ</t>
+  </si>
+  <si>
+    <t>ZeKgqZAg</t>
+  </si>
+  <si>
+    <t>IZNxXUuk</t>
+  </si>
+  <si>
+    <t>GaStOwGx</t>
+  </si>
+  <si>
+    <t>krt5EtYe</t>
+  </si>
+  <si>
+    <t>moxPHGmr</t>
+  </si>
+  <si>
+    <t>6u2RjE69</t>
+  </si>
+  <si>
+    <t>6ayolSHB</t>
+  </si>
+  <si>
+    <t>xz1PtOFo</t>
+  </si>
+  <si>
+    <t>B2Da1QGF</t>
+  </si>
+  <si>
+    <t>riVmzOiM</t>
+  </si>
+  <si>
+    <t>gSzqTFMJ</t>
+  </si>
+  <si>
+    <t>Mt7SMHiR</t>
+  </si>
+  <si>
+    <t>i1CW8YCY</t>
+  </si>
+  <si>
+    <t>mcfiML4n</t>
+  </si>
+  <si>
+    <t>p4vYUDcA</t>
+  </si>
+  <si>
+    <t>dEgeWJu4</t>
+  </si>
+  <si>
+    <t>sDQU0uBj</t>
+  </si>
+  <si>
+    <t>GgcLG1wd</t>
+  </si>
+  <si>
+    <t>olI4FjnK</t>
+  </si>
+  <si>
+    <t>2VwdEvSi</t>
+  </si>
+  <si>
+    <t>r5Ym2tzw</t>
+  </si>
+  <si>
+    <t>ebgxauS8</t>
+  </si>
+  <si>
+    <t>H3HtPJdB</t>
+  </si>
+  <si>
+    <t>3DmsborO</t>
+  </si>
+  <si>
+    <t>dcI6Vg8v</t>
+  </si>
+  <si>
+    <t>bOcqPHPt</t>
+  </si>
+  <si>
+    <t>rvksuBQ5</t>
+  </si>
+  <si>
+    <t>EVbsOgcV</t>
+  </si>
+  <si>
+    <t>hUo8B8NX</t>
+  </si>
+  <si>
+    <t>Zra0R5w0</t>
   </si>
 </sst>
 </file>
